--- a/Documents/Actividades realizadas/ActividadesN.xlsx
+++ b/Documents/Actividades realizadas/ActividadesN.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Cotización vs Real" sheetId="2" r:id="rId2"/>
+    <sheet name="Pendientes" sheetId="3" r:id="rId2"/>
+    <sheet name="Cotización vs Real" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="263">
   <si>
     <t>Descripción</t>
   </si>
@@ -721,6 +722,105 @@
   </si>
   <si>
     <t>Conexiones de soporte</t>
+  </si>
+  <si>
+    <t>Revisiones de redondeo</t>
+  </si>
+  <si>
+    <t>Verificación de inventario por selección</t>
+  </si>
+  <si>
+    <t>Hrs Estimadas</t>
+  </si>
+  <si>
+    <t>Hrs Reales</t>
+  </si>
+  <si>
+    <t>Ventana</t>
+  </si>
+  <si>
+    <t>Corte de caja</t>
+  </si>
+  <si>
+    <t>PONER LAS VENTAS DE TALLER APARTE</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>COMPLETO</t>
+  </si>
+  <si>
+    <t>PERMISO DE CAMBIOS EN SOBRE DE TALLER</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>Cambio de permiso en actualización de sobre</t>
+  </si>
+  <si>
+    <t>PONER PRECIO Y COSTO PERO NOMAS A MARTIN (PERMISO PERSONALIZADO)</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>HACER EGRESO DE DOLARES TAMBIEN</t>
+  </si>
+  <si>
+    <t>EGRESOS</t>
+  </si>
+  <si>
+    <t>incidente con el corte de caja que no sumaba si no le dabas hasta el final</t>
+  </si>
+  <si>
+    <t>PONER LAS VENTAS DE TALLER APARTE Y CAMBIAR LOS REPORTES DE CORTES DE CAJA</t>
+  </si>
+  <si>
+    <t>Se agrega Ingreso real en el corte de Caja y en loas Cortes Historicos</t>
+  </si>
+  <si>
+    <t>Reporte de ventas</t>
+  </si>
+  <si>
+    <t>Regla para que las notas de consignación para Martín pida autorización</t>
+  </si>
+  <si>
+    <t>Configuración e instalación de impresora en mostrador</t>
+  </si>
+  <si>
+    <t>Agregar descuento por dinero</t>
+  </si>
+  <si>
+    <t>Crear la devolución de inventario</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Agregar el descuento pero en pesos en la pantalla de ventas, solucionar detalle de los decimales en los pagos</t>
+  </si>
+  <si>
+    <t>Mostrar Log de quien autoriza las cosas</t>
+  </si>
+  <si>
+    <t>Devolución de inventarios</t>
+  </si>
+  <si>
+    <t>Agregar una nota de entrada de inventario que sumarice el costo</t>
+  </si>
+  <si>
+    <t>Agregar margen de 30% despues del costo para los descuentos</t>
+  </si>
+  <si>
+    <t>Agregar cambio de precio y con permiso</t>
+  </si>
+  <si>
+    <t>Al agregar descuento por precio, agregar alerta de si está seguro</t>
+  </si>
+  <si>
+    <t>Rediseñar impresión de ticket de taller notas de taller</t>
   </si>
 </sst>
 </file>
@@ -789,7 +889,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +938,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -853,7 +959,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,6 +1027,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1291,11 +1406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K257"/>
+  <dimension ref="A1:K267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G222" sqref="G222:G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>45345</v>
       </c>
@@ -5515,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>45346</v>
       </c>
@@ -5532,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>45346</v>
       </c>
@@ -5549,7 +5664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>45346</v>
       </c>
@@ -5566,7 +5681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="D213" t="s">
         <v>229</v>
@@ -5581,294 +5696,364 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>230</v>
+      </c>
+      <c r="E214" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F214" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G214" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>231</v>
+      </c>
+      <c r="E215" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F215" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G215" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>241</v>
+      </c>
+      <c r="E216" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F216" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G216" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="47" t="s">
+      <c r="D217" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E217" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F217" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G217" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="D218" t="s">
+        <v>248</v>
+      </c>
+      <c r="E218" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F218" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G218" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="D219" t="s">
+        <v>249</v>
+      </c>
+      <c r="E219" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F219" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G219" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="D220" t="s">
+        <v>250</v>
+      </c>
+      <c r="E220" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F220" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G220" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="5"/>
+      <c r="D221" t="s">
+        <v>251</v>
+      </c>
+      <c r="E221" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F221" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H221" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="5"/>
+      <c r="D222" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E222" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F222" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G222" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="5"/>
+      <c r="D223" t="s">
+        <v>257</v>
+      </c>
+      <c r="E223" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F223" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G223" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="5"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="5"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B218" s="47"/>
-      <c r="C218" s="47"/>
-      <c r="D218" s="47"/>
-      <c r="E218" s="47"/>
-      <c r="F218" s="47"/>
-      <c r="G218" s="17">
-        <f>SUM(G2:G217)</f>
-        <v>217.78999999999994</v>
-      </c>
-      <c r="H218" s="17">
-        <f>SUM(H2:H217)</f>
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="47" t="s">
+      <c r="B228" s="50"/>
+      <c r="C228" s="50"/>
+      <c r="D228" s="50"/>
+      <c r="E228" s="50"/>
+      <c r="F228" s="50"/>
+      <c r="G228" s="17">
+        <f>SUM(G2:G227)</f>
+        <v>238.78999999999994</v>
+      </c>
+      <c r="H228" s="17">
+        <f>SUM(H2:H227)</f>
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B219" s="47"/>
-      <c r="C219" s="47"/>
-      <c r="D219" s="47"/>
-      <c r="E219" s="47"/>
-      <c r="F219" s="47"/>
-      <c r="G219" s="17">
+      <c r="B229" s="50"/>
+      <c r="C229" s="50"/>
+      <c r="D229" s="50"/>
+      <c r="E229" s="50"/>
+      <c r="F229" s="50"/>
+      <c r="G229" s="17">
         <v>200</v>
       </c>
-      <c r="H219" s="17">
+      <c r="H229" s="17">
         <v>300</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="47" t="s">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B220" s="47"/>
-      <c r="C220" s="47"/>
-      <c r="D220" s="47"/>
-      <c r="E220" s="47"/>
-      <c r="F220" s="47"/>
-      <c r="G220" s="18">
-        <f>G219*G218</f>
-        <v>43557.999999999985</v>
-      </c>
-      <c r="H220" s="19">
-        <f>H219*H218</f>
-        <v>11640</v>
-      </c>
-      <c r="J220">
+      <c r="B230" s="50"/>
+      <c r="C230" s="50"/>
+      <c r="D230" s="50"/>
+      <c r="E230" s="50"/>
+      <c r="F230" s="50"/>
+      <c r="G230" s="18">
+        <f>G229*G228</f>
+        <v>47757.999999999985</v>
+      </c>
+      <c r="H230" s="19">
+        <f>H229*H228</f>
+        <v>12840</v>
+      </c>
+      <c r="J230">
         <v>-500</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A221" s="47" t="s">
+    <row r="231" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A231" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B221" s="47"/>
-      <c r="C221" s="47"/>
-      <c r="D221" s="47"/>
-      <c r="E221" s="47"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="35">
-        <f>G220+H220</f>
-        <v>55197.999999999985</v>
-      </c>
-      <c r="H221" s="35"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
-      <c r="B222" s="38" t="s">
+      <c r="B231" s="50"/>
+      <c r="C231" s="50"/>
+      <c r="D231" s="50"/>
+      <c r="E231" s="50"/>
+      <c r="F231" s="50"/>
+      <c r="G231" s="38">
+        <f>G230+H230</f>
+        <v>60597.999999999985</v>
+      </c>
+      <c r="H231" s="38"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="11"/>
+      <c r="B232" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C222" s="38"/>
-      <c r="D222" s="38"/>
-      <c r="E222" s="38"/>
-      <c r="F222" s="38"/>
-      <c r="G222" s="22"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="12">
+      <c r="C232" s="41"/>
+      <c r="D232" s="41"/>
+      <c r="E232" s="41"/>
+      <c r="F232" s="41"/>
+      <c r="G232" s="22"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="12">
         <v>45109</v>
       </c>
-      <c r="B223" s="39" t="s">
+      <c r="B233" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C223" s="39"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="39"/>
-      <c r="F223" s="39"/>
-      <c r="G223" s="41">
+      <c r="C233" s="42"/>
+      <c r="D233" s="42"/>
+      <c r="E233" s="42"/>
+      <c r="F233" s="42"/>
+      <c r="G233" s="44">
         <v>10000</v>
       </c>
-      <c r="H223" s="41"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="12"/>
-      <c r="B224" s="43" t="s">
+      <c r="H233" s="44"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="12"/>
+      <c r="B234" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C224" s="43"/>
-      <c r="D224" s="43"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="43"/>
-      <c r="G224" s="41">
+      <c r="C234" s="46"/>
+      <c r="D234" s="46"/>
+      <c r="E234" s="46"/>
+      <c r="F234" s="46"/>
+      <c r="G234" s="44">
         <v>5000</v>
       </c>
-      <c r="H224" s="41"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="12">
+      <c r="H234" s="44"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="12">
         <v>45278</v>
       </c>
-      <c r="B225" s="40" t="s">
+      <c r="B235" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C225" s="40"/>
-      <c r="D225" s="40"/>
-      <c r="E225" s="40"/>
-      <c r="F225" s="40"/>
-      <c r="G225" s="41">
+      <c r="C235" s="43"/>
+      <c r="D235" s="43"/>
+      <c r="E235" s="43"/>
+      <c r="F235" s="43"/>
+      <c r="G235" s="44">
         <v>9800</v>
       </c>
-      <c r="H225" s="41"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="12"/>
-      <c r="B226" s="40"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="40"/>
-      <c r="E226" s="40"/>
-      <c r="F226" s="40"/>
-      <c r="G226" s="42"/>
-      <c r="H226" s="42"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="12"/>
-      <c r="B227" s="40"/>
-      <c r="C227" s="40"/>
-      <c r="D227" s="40"/>
-      <c r="E227" s="40"/>
-      <c r="F227" s="40"/>
-      <c r="G227" s="42"/>
-      <c r="H227" s="42"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="12"/>
-      <c r="B228" s="40"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="40"/>
-      <c r="E228" s="40"/>
-      <c r="F228" s="40"/>
-      <c r="G228" s="42"/>
-      <c r="H228" s="42"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="12"/>
-      <c r="B229" s="40" t="s">
+      <c r="H235" s="44"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="12"/>
+      <c r="B236" s="43"/>
+      <c r="C236" s="43"/>
+      <c r="D236" s="43"/>
+      <c r="E236" s="43"/>
+      <c r="F236" s="43"/>
+      <c r="G236" s="45"/>
+      <c r="H236" s="45"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="12"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="43"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="45"/>
+      <c r="H237" s="45"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="12"/>
+      <c r="B238" s="43"/>
+      <c r="C238" s="43"/>
+      <c r="D238" s="43"/>
+      <c r="E238" s="43"/>
+      <c r="F238" s="43"/>
+      <c r="G238" s="45"/>
+      <c r="H238" s="45"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="12"/>
+      <c r="B239" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C229" s="40"/>
-      <c r="D229" s="40"/>
-      <c r="E229" s="40"/>
-      <c r="F229" s="40"/>
-      <c r="G229" s="41">
-        <f>SUM(G223:H228)</f>
+      <c r="C239" s="43"/>
+      <c r="D239" s="43"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="43"/>
+      <c r="G239" s="44">
+        <f>SUM(G233:H238)</f>
         <v>24800</v>
       </c>
-      <c r="H229" s="41"/>
-    </row>
-    <row r="230" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A230" s="36" t="s">
+      <c r="H239" s="44"/>
+    </row>
+    <row r="240" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A240" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B230" s="36"/>
-      <c r="C230" s="36"/>
-      <c r="D230" s="36"/>
-      <c r="E230" s="36"/>
-      <c r="F230" s="36"/>
-      <c r="G230" s="37">
-        <f>G221-G229</f>
-        <v>30397.999999999985</v>
-      </c>
-      <c r="H230" s="37"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="12"/>
-      <c r="B231" s="13"/>
-      <c r="C231" s="13"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="12"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
-      <c r="F232" s="13"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="12"/>
-      <c r="B233" s="13"/>
-      <c r="C233" s="13"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="13"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="12"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-      <c r="F234" s="13"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="12"/>
-      <c r="B235" s="13"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
-      <c r="F235" s="13"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="12"/>
-      <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="12"/>
-      <c r="B237" s="13"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13"/>
-      <c r="F237" s="13"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="12"/>
-      <c r="B238" s="13"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="13"/>
-      <c r="E238" s="13"/>
-      <c r="F238" s="13"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="12"/>
-      <c r="B239" s="13"/>
-      <c r="C239" s="13"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
-      <c r="F239" s="13"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="12"/>
-      <c r="B240" s="13"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="39"/>
+      <c r="C240" s="39"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="39"/>
+      <c r="F240" s="39"/>
+      <c r="G240" s="40">
+        <f>G231-G239</f>
+        <v>35797.999999999985</v>
+      </c>
+      <c r="H240" s="40"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -5876,7 +6061,7 @@
       <c r="E241" s="13"/>
       <c r="F241" s="13"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -5884,7 +6069,7 @@
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -5892,7 +6077,7 @@
       <c r="E243" s="13"/>
       <c r="F243" s="13"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -5900,7 +6085,7 @@
       <c r="E244" s="13"/>
       <c r="F244" s="13"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -5908,7 +6093,7 @@
       <c r="E245" s="13"/>
       <c r="F245" s="13"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -5916,7 +6101,7 @@
       <c r="E246" s="13"/>
       <c r="F246" s="13"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -5924,7 +6109,7 @@
       <c r="E247" s="13"/>
       <c r="F247" s="13"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -5932,191 +6117,271 @@
       <c r="E248" s="13"/>
       <c r="F248" s="13"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="10"/>
-      <c r="B249" s="48" t="s">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="12"/>
+      <c r="B249" s="13"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="12"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="12"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="12"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="12"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="12"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="12"/>
+      <c r="B255" s="13"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="12"/>
+      <c r="B256" s="13"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="12"/>
+      <c r="B257" s="13"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="12"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="10"/>
+      <c r="B259" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C249" s="48"/>
-      <c r="D249" s="48"/>
-      <c r="E249" s="48"/>
-      <c r="F249" s="48"/>
-      <c r="G249" s="21"/>
-      <c r="H249" s="21"/>
-      <c r="I249" s="8">
-        <f>G218+H218</f>
-        <v>256.58999999999992</v>
-      </c>
-      <c r="J249" s="8">
-        <f>I249</f>
-        <v>256.58999999999992</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="5"/>
-      <c r="B250" s="49" t="s">
+      <c r="C259" s="51"/>
+      <c r="D259" s="51"/>
+      <c r="E259" s="51"/>
+      <c r="F259" s="51"/>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21"/>
+      <c r="I259" s="8">
+        <f>G228+H228</f>
+        <v>281.58999999999992</v>
+      </c>
+      <c r="J259" s="8">
+        <f>I259</f>
+        <v>281.58999999999992</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+      <c r="B260" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C250" s="49"/>
-      <c r="D250" s="49"/>
-      <c r="E250" s="49"/>
-      <c r="F250" s="49"/>
-      <c r="I250" s="8">
+      <c r="C260" s="52"/>
+      <c r="D260" s="52"/>
+      <c r="E260" s="52"/>
+      <c r="F260" s="52"/>
+      <c r="I260" s="8">
         <v>300</v>
       </c>
-      <c r="J250" s="8">
+      <c r="J260" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A251" s="5"/>
-      <c r="B251" s="49" t="s">
+    <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A261" s="5"/>
+      <c r="B261" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C251" s="49"/>
-      <c r="D251" s="49"/>
-      <c r="E251" s="49"/>
-      <c r="F251" s="49"/>
-      <c r="I251" s="9">
-        <f>I250*I249</f>
-        <v>76976.999999999971</v>
-      </c>
-      <c r="J251" s="9">
-        <f>J250*J249</f>
-        <v>51317.999999999985</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="23"/>
-      <c r="B252" s="50" t="s">
+      <c r="C261" s="52"/>
+      <c r="D261" s="52"/>
+      <c r="E261" s="52"/>
+      <c r="F261" s="52"/>
+      <c r="I261" s="9">
+        <f>I260*I259</f>
+        <v>84476.999999999971</v>
+      </c>
+      <c r="J261" s="9">
+        <f>J260*J259</f>
+        <v>56317.999999999985</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="23"/>
+      <c r="B262" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C252" s="50"/>
-      <c r="D252" s="50"/>
-      <c r="E252" s="50"/>
-      <c r="F252" s="50"/>
-      <c r="G252" s="24"/>
-      <c r="H252" s="24"/>
-      <c r="I252" s="25"/>
-      <c r="J252" s="25"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="26">
+      <c r="C262" s="53"/>
+      <c r="D262" s="53"/>
+      <c r="E262" s="53"/>
+      <c r="F262" s="53"/>
+      <c r="G262" s="24"/>
+      <c r="H262" s="24"/>
+      <c r="I262" s="25"/>
+      <c r="J262" s="25"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="26">
         <v>45109</v>
       </c>
-      <c r="B253" s="45" t="s">
+      <c r="B263" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C253" s="45"/>
-      <c r="D253" s="45"/>
-      <c r="E253" s="45"/>
-      <c r="F253" s="45"/>
-      <c r="G253" s="27"/>
-      <c r="H253" s="27"/>
-      <c r="I253" s="28">
+      <c r="C263" s="48"/>
+      <c r="D263" s="48"/>
+      <c r="E263" s="48"/>
+      <c r="F263" s="48"/>
+      <c r="G263" s="27"/>
+      <c r="H263" s="27"/>
+      <c r="I263" s="28">
         <v>10000</v>
       </c>
-      <c r="J253" s="28">
+      <c r="J263" s="28">
         <v>10000</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="26"/>
-      <c r="B254" s="29"/>
-      <c r="C254" s="29"/>
-      <c r="D254" s="29"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="29"/>
-      <c r="G254" s="27"/>
-      <c r="H254" s="27"/>
-      <c r="I254" s="30"/>
-      <c r="J254" s="30"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="26"/>
-      <c r="B255" s="29"/>
-      <c r="C255" s="29"/>
-      <c r="D255" s="29"/>
-      <c r="E255" s="29"/>
-      <c r="F255" s="29"/>
-      <c r="G255" s="27"/>
-      <c r="H255" s="27"/>
-      <c r="I255" s="30"/>
-      <c r="J255" s="30"/>
-    </row>
-    <row r="256" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A256" s="26"/>
-      <c r="B256" s="46" t="s">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="26"/>
+      <c r="B264" s="29"/>
+      <c r="C264" s="29"/>
+      <c r="D264" s="29"/>
+      <c r="E264" s="29"/>
+      <c r="F264" s="29"/>
+      <c r="G264" s="27"/>
+      <c r="H264" s="27"/>
+      <c r="I264" s="30"/>
+      <c r="J264" s="30"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="26"/>
+      <c r="B265" s="29"/>
+      <c r="C265" s="29"/>
+      <c r="D265" s="29"/>
+      <c r="E265" s="29"/>
+      <c r="F265" s="29"/>
+      <c r="G265" s="27"/>
+      <c r="H265" s="27"/>
+      <c r="I265" s="30"/>
+      <c r="J265" s="30"/>
+    </row>
+    <row r="266" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A266" s="26"/>
+      <c r="B266" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C256" s="46"/>
-      <c r="D256" s="46"/>
-      <c r="E256" s="46"/>
-      <c r="F256" s="46"/>
-      <c r="G256" s="27"/>
-      <c r="H256" s="27"/>
-      <c r="I256" s="31">
-        <f>SUM(I253:I255)</f>
+      <c r="C266" s="49"/>
+      <c r="D266" s="49"/>
+      <c r="E266" s="49"/>
+      <c r="F266" s="49"/>
+      <c r="G266" s="27"/>
+      <c r="H266" s="27"/>
+      <c r="I266" s="31">
+        <f>SUM(I263:I265)</f>
         <v>10000</v>
       </c>
-      <c r="J256" s="31">
-        <f>SUM(J253:J255)</f>
+      <c r="J266" s="31">
+        <f>SUM(J263:J265)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A257" s="32">
+    <row r="267" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A267" s="32">
         <v>45109</v>
       </c>
-      <c r="B257" s="44" t="s">
+      <c r="B267" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C257" s="44"/>
-      <c r="D257" s="44"/>
-      <c r="E257" s="44"/>
-      <c r="F257" s="44"/>
-      <c r="G257" s="33"/>
-      <c r="H257" s="33"/>
-      <c r="I257" s="34">
-        <f>I251-I256</f>
-        <v>66976.999999999971</v>
-      </c>
-      <c r="J257" s="34">
-        <f>J251-J256</f>
-        <v>41317.999999999985</v>
+      <c r="C267" s="47"/>
+      <c r="D267" s="47"/>
+      <c r="E267" s="47"/>
+      <c r="F267" s="47"/>
+      <c r="G267" s="33"/>
+      <c r="H267" s="33"/>
+      <c r="I267" s="34">
+        <f>I261-I266</f>
+        <v>74476.999999999971</v>
+      </c>
+      <c r="J267" s="34">
+        <f>J261-J266</f>
+        <v>46317.999999999985</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="A220:F220"/>
-    <mergeCell ref="A221:F221"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="A229:F229"/>
+    <mergeCell ref="A228:F228"/>
     <mergeCell ref="A230:F230"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="G238:H238"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B236:F236"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6125,10 +6390,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="35">
+        <v>1</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="35">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -6155,12 +6599,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -6463,12 +6907,12 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -7097,10 +7541,10 @@
       <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/Actividades realizadas/ActividadesN.xlsx
+++ b/Documents/Actividades realizadas/ActividadesN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="265">
   <si>
     <t>Descripción</t>
   </si>
@@ -821,6 +821,12 @@
   </si>
   <si>
     <t>Rediseñar impresión de ticket de taller notas de taller</t>
+  </si>
+  <si>
+    <t>Cerrar la ventana del cliente cuando se agrega o se actualiza</t>
+  </si>
+  <si>
+    <t>Agregar atajo de inventario de producto desde la consulta</t>
   </si>
 </sst>
 </file>
@@ -1036,6 +1042,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1051,9 +1081,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1062,27 +1089,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1398,7 +1404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1406,11 +1412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K267"/>
+  <dimension ref="A1:K272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G222" sqref="G222:G223"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5848,13 +5854,33 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
+      <c r="D224" t="s">
+        <v>263</v>
+      </c>
+      <c r="E224" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G224" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
+      <c r="D225" t="s">
+        <v>264</v>
+      </c>
+      <c r="E225" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G225" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
@@ -5867,233 +5893,218 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="50" t="s">
+      <c r="A228" s="5"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="5"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="5"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B228" s="50"/>
-      <c r="C228" s="50"/>
-      <c r="D228" s="50"/>
-      <c r="E228" s="50"/>
-      <c r="F228" s="50"/>
-      <c r="G228" s="17">
-        <f>SUM(G2:G227)</f>
-        <v>238.78999999999994</v>
-      </c>
-      <c r="H228" s="17">
-        <f>SUM(H2:H227)</f>
+      <c r="B233" s="41"/>
+      <c r="C233" s="41"/>
+      <c r="D233" s="41"/>
+      <c r="E233" s="41"/>
+      <c r="F233" s="41"/>
+      <c r="G233" s="17">
+        <f>SUM(G2:G232)</f>
+        <v>241.78999999999994</v>
+      </c>
+      <c r="H233" s="17">
+        <f>SUM(H2:H232)</f>
         <v>42.8</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="50" t="s">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B229" s="50"/>
-      <c r="C229" s="50"/>
-      <c r="D229" s="50"/>
-      <c r="E229" s="50"/>
-      <c r="F229" s="50"/>
-      <c r="G229" s="17">
+      <c r="B234" s="41"/>
+      <c r="C234" s="41"/>
+      <c r="D234" s="41"/>
+      <c r="E234" s="41"/>
+      <c r="F234" s="41"/>
+      <c r="G234" s="17">
         <v>200</v>
       </c>
-      <c r="H229" s="17">
+      <c r="H234" s="17">
         <v>300</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="50" t="s">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B230" s="50"/>
-      <c r="C230" s="50"/>
-      <c r="D230" s="50"/>
-      <c r="E230" s="50"/>
-      <c r="F230" s="50"/>
-      <c r="G230" s="18">
-        <f>G229*G228</f>
-        <v>47757.999999999985</v>
-      </c>
-      <c r="H230" s="19">
-        <f>H229*H228</f>
+      <c r="B235" s="41"/>
+      <c r="C235" s="41"/>
+      <c r="D235" s="41"/>
+      <c r="E235" s="41"/>
+      <c r="F235" s="41"/>
+      <c r="G235" s="18">
+        <f>G234*G233</f>
+        <v>48357.999999999985</v>
+      </c>
+      <c r="H235" s="19">
+        <f>H234*H233</f>
         <v>12840</v>
       </c>
-      <c r="J230">
+      <c r="J235">
         <v>-500</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A231" s="50" t="s">
+    <row r="236" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A236" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B231" s="50"/>
-      <c r="C231" s="50"/>
-      <c r="D231" s="50"/>
-      <c r="E231" s="50"/>
-      <c r="F231" s="50"/>
-      <c r="G231" s="38">
-        <f>G230+H230</f>
-        <v>60597.999999999985</v>
-      </c>
-      <c r="H231" s="38"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
-      <c r="B232" s="41" t="s">
+      <c r="B236" s="41"/>
+      <c r="C236" s="41"/>
+      <c r="D236" s="41"/>
+      <c r="E236" s="41"/>
+      <c r="F236" s="41"/>
+      <c r="G236" s="46">
+        <f>G235+H235</f>
+        <v>61197.999999999985</v>
+      </c>
+      <c r="H236" s="46"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="11"/>
+      <c r="B237" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C232" s="41"/>
-      <c r="D232" s="41"/>
-      <c r="E232" s="41"/>
-      <c r="F232" s="41"/>
-      <c r="G232" s="22"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="12">
+      <c r="C237" s="49"/>
+      <c r="D237" s="49"/>
+      <c r="E237" s="49"/>
+      <c r="F237" s="49"/>
+      <c r="G237" s="22"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="12">
         <v>45109</v>
       </c>
-      <c r="B233" s="42" t="s">
+      <c r="B238" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C233" s="42"/>
-      <c r="D233" s="42"/>
-      <c r="E233" s="42"/>
-      <c r="F233" s="42"/>
-      <c r="G233" s="44">
+      <c r="C238" s="50"/>
+      <c r="D238" s="50"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="50"/>
+      <c r="G238" s="51">
         <v>10000</v>
       </c>
-      <c r="H233" s="44"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="12"/>
-      <c r="B234" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C234" s="46"/>
-      <c r="D234" s="46"/>
-      <c r="E234" s="46"/>
-      <c r="F234" s="46"/>
-      <c r="G234" s="44">
-        <v>5000</v>
-      </c>
-      <c r="H234" s="44"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="12">
-        <v>45278</v>
-      </c>
-      <c r="B235" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C235" s="43"/>
-      <c r="D235" s="43"/>
-      <c r="E235" s="43"/>
-      <c r="F235" s="43"/>
-      <c r="G235" s="44">
-        <v>9800</v>
-      </c>
-      <c r="H235" s="44"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="12"/>
-      <c r="B236" s="43"/>
-      <c r="C236" s="43"/>
-      <c r="D236" s="43"/>
-      <c r="E236" s="43"/>
-      <c r="F236" s="43"/>
-      <c r="G236" s="45"/>
-      <c r="H236" s="45"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="12"/>
-      <c r="B237" s="43"/>
-      <c r="C237" s="43"/>
-      <c r="D237" s="43"/>
-      <c r="E237" s="43"/>
-      <c r="F237" s="43"/>
-      <c r="G237" s="45"/>
-      <c r="H237" s="45"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="12"/>
-      <c r="B238" s="43"/>
-      <c r="C238" s="43"/>
-      <c r="D238" s="43"/>
-      <c r="E238" s="43"/>
-      <c r="F238" s="43"/>
-      <c r="G238" s="45"/>
-      <c r="H238" s="45"/>
+      <c r="H238" s="51"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
-      <c r="B239" s="43" t="s">
+      <c r="B239" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C239" s="53"/>
+      <c r="D239" s="53"/>
+      <c r="E239" s="53"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="51">
+        <v>5000</v>
+      </c>
+      <c r="H239" s="51"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="12">
+        <v>45278</v>
+      </c>
+      <c r="B240" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C240" s="42"/>
+      <c r="D240" s="42"/>
+      <c r="E240" s="42"/>
+      <c r="F240" s="42"/>
+      <c r="G240" s="51">
+        <v>9800</v>
+      </c>
+      <c r="H240" s="51"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="12"/>
+      <c r="B241" s="42"/>
+      <c r="C241" s="42"/>
+      <c r="D241" s="42"/>
+      <c r="E241" s="42"/>
+      <c r="F241" s="42"/>
+      <c r="G241" s="52"/>
+      <c r="H241" s="52"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="12"/>
+      <c r="B242" s="42"/>
+      <c r="C242" s="42"/>
+      <c r="D242" s="42"/>
+      <c r="E242" s="42"/>
+      <c r="F242" s="42"/>
+      <c r="G242" s="52"/>
+      <c r="H242" s="52"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="12"/>
+      <c r="B243" s="42"/>
+      <c r="C243" s="42"/>
+      <c r="D243" s="42"/>
+      <c r="E243" s="42"/>
+      <c r="F243" s="42"/>
+      <c r="G243" s="52"/>
+      <c r="H243" s="52"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="12"/>
+      <c r="B244" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C239" s="43"/>
-      <c r="D239" s="43"/>
-      <c r="E239" s="43"/>
-      <c r="F239" s="43"/>
-      <c r="G239" s="44">
-        <f>SUM(G233:H238)</f>
+      <c r="C244" s="42"/>
+      <c r="D244" s="42"/>
+      <c r="E244" s="42"/>
+      <c r="F244" s="42"/>
+      <c r="G244" s="51">
+        <f>SUM(G238:H243)</f>
         <v>24800</v>
       </c>
-      <c r="H239" s="44"/>
-    </row>
-    <row r="240" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A240" s="39" t="s">
+      <c r="H244" s="51"/>
+    </row>
+    <row r="245" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A245" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="B240" s="39"/>
-      <c r="C240" s="39"/>
-      <c r="D240" s="39"/>
-      <c r="E240" s="39"/>
-      <c r="F240" s="39"/>
-      <c r="G240" s="40">
-        <f>G231-G239</f>
-        <v>35797.999999999985</v>
-      </c>
-      <c r="H240" s="40"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="12"/>
-      <c r="B241" s="13"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="13"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="12"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="13"/>
-      <c r="F242" s="13"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="12"/>
-      <c r="B243" s="13"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
-      <c r="F243" s="13"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="12"/>
-      <c r="B244" s="13"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="13"/>
-      <c r="E244" s="13"/>
-      <c r="F244" s="13"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="12"/>
-      <c r="B245" s="13"/>
-      <c r="C245" s="13"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13"/>
-      <c r="F245" s="13"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="47"/>
+      <c r="C245" s="47"/>
+      <c r="D245" s="47"/>
+      <c r="E245" s="47"/>
+      <c r="F245" s="47"/>
+      <c r="G245" s="48">
+        <f>G236-G244</f>
+        <v>36397.999999999985</v>
+      </c>
+      <c r="H245" s="48"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -6101,7 +6112,7 @@
       <c r="E246" s="13"/>
       <c r="F246" s="13"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -6109,7 +6120,7 @@
       <c r="E247" s="13"/>
       <c r="F247" s="13"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -6117,7 +6128,7 @@
       <c r="E248" s="13"/>
       <c r="F248" s="13"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -6125,7 +6136,7 @@
       <c r="E249" s="13"/>
       <c r="F249" s="13"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -6133,7 +6144,7 @@
       <c r="E250" s="13"/>
       <c r="F250" s="13"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -6141,7 +6152,7 @@
       <c r="E251" s="13"/>
       <c r="F251" s="13"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -6149,7 +6160,7 @@
       <c r="E252" s="13"/>
       <c r="F252" s="13"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -6157,7 +6168,7 @@
       <c r="E253" s="13"/>
       <c r="F253" s="13"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -6165,7 +6176,7 @@
       <c r="E254" s="13"/>
       <c r="F254" s="13"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -6173,7 +6184,7 @@
       <c r="E255" s="13"/>
       <c r="F255" s="13"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -6198,190 +6209,230 @@
       <c r="F258" s="13"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
-      <c r="B259" s="51" t="s">
+      <c r="A259" s="12"/>
+      <c r="B259" s="13"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="12"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="12"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="12"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="12"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="13"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="10"/>
+      <c r="B264" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C259" s="51"/>
-      <c r="D259" s="51"/>
-      <c r="E259" s="51"/>
-      <c r="F259" s="51"/>
-      <c r="G259" s="21"/>
-      <c r="H259" s="21"/>
-      <c r="I259" s="8">
-        <f>G228+H228</f>
-        <v>281.58999999999992</v>
-      </c>
-      <c r="J259" s="8">
-        <f>I259</f>
-        <v>281.58999999999992</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="5"/>
-      <c r="B260" s="52" t="s">
+      <c r="C264" s="43"/>
+      <c r="D264" s="43"/>
+      <c r="E264" s="43"/>
+      <c r="F264" s="43"/>
+      <c r="G264" s="21"/>
+      <c r="H264" s="21"/>
+      <c r="I264" s="8">
+        <f>G233+H233</f>
+        <v>284.58999999999992</v>
+      </c>
+      <c r="J264" s="8">
+        <f>I264</f>
+        <v>284.58999999999992</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="5"/>
+      <c r="B265" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C260" s="52"/>
-      <c r="D260" s="52"/>
-      <c r="E260" s="52"/>
-      <c r="F260" s="52"/>
-      <c r="I260" s="8">
+      <c r="C265" s="44"/>
+      <c r="D265" s="44"/>
+      <c r="E265" s="44"/>
+      <c r="F265" s="44"/>
+      <c r="I265" s="8">
         <v>300</v>
       </c>
-      <c r="J260" s="8">
+      <c r="J265" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A261" s="5"/>
-      <c r="B261" s="52" t="s">
+    <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A266" s="5"/>
+      <c r="B266" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C261" s="52"/>
-      <c r="D261" s="52"/>
-      <c r="E261" s="52"/>
-      <c r="F261" s="52"/>
-      <c r="I261" s="9">
-        <f>I260*I259</f>
-        <v>84476.999999999971</v>
-      </c>
-      <c r="J261" s="9">
-        <f>J260*J259</f>
-        <v>56317.999999999985</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="23"/>
-      <c r="B262" s="53" t="s">
+      <c r="C266" s="44"/>
+      <c r="D266" s="44"/>
+      <c r="E266" s="44"/>
+      <c r="F266" s="44"/>
+      <c r="I266" s="9">
+        <f>I265*I264</f>
+        <v>85376.999999999971</v>
+      </c>
+      <c r="J266" s="9">
+        <f>J265*J264</f>
+        <v>56917.999999999985</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="23"/>
+      <c r="B267" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C262" s="53"/>
-      <c r="D262" s="53"/>
-      <c r="E262" s="53"/>
-      <c r="F262" s="53"/>
-      <c r="G262" s="24"/>
-      <c r="H262" s="24"/>
-      <c r="I262" s="25"/>
-      <c r="J262" s="25"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="26">
+      <c r="C267" s="45"/>
+      <c r="D267" s="45"/>
+      <c r="E267" s="45"/>
+      <c r="F267" s="45"/>
+      <c r="G267" s="24"/>
+      <c r="H267" s="24"/>
+      <c r="I267" s="25"/>
+      <c r="J267" s="25"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="26">
         <v>45109</v>
       </c>
-      <c r="B263" s="48" t="s">
+      <c r="B268" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C263" s="48"/>
-      <c r="D263" s="48"/>
-      <c r="E263" s="48"/>
-      <c r="F263" s="48"/>
-      <c r="G263" s="27"/>
-      <c r="H263" s="27"/>
-      <c r="I263" s="28">
+      <c r="C268" s="39"/>
+      <c r="D268" s="39"/>
+      <c r="E268" s="39"/>
+      <c r="F268" s="39"/>
+      <c r="G268" s="27"/>
+      <c r="H268" s="27"/>
+      <c r="I268" s="28">
         <v>10000</v>
       </c>
-      <c r="J263" s="28">
+      <c r="J268" s="28">
         <v>10000</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="26"/>
-      <c r="B264" s="29"/>
-      <c r="C264" s="29"/>
-      <c r="D264" s="29"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="29"/>
-      <c r="G264" s="27"/>
-      <c r="H264" s="27"/>
-      <c r="I264" s="30"/>
-      <c r="J264" s="30"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="26"/>
-      <c r="B265" s="29"/>
-      <c r="C265" s="29"/>
-      <c r="D265" s="29"/>
-      <c r="E265" s="29"/>
-      <c r="F265" s="29"/>
-      <c r="G265" s="27"/>
-      <c r="H265" s="27"/>
-      <c r="I265" s="30"/>
-      <c r="J265" s="30"/>
-    </row>
-    <row r="266" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A266" s="26"/>
-      <c r="B266" s="49" t="s">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="26"/>
+      <c r="B269" s="29"/>
+      <c r="C269" s="29"/>
+      <c r="D269" s="29"/>
+      <c r="E269" s="29"/>
+      <c r="F269" s="29"/>
+      <c r="G269" s="27"/>
+      <c r="H269" s="27"/>
+      <c r="I269" s="30"/>
+      <c r="J269" s="30"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="26"/>
+      <c r="B270" s="29"/>
+      <c r="C270" s="29"/>
+      <c r="D270" s="29"/>
+      <c r="E270" s="29"/>
+      <c r="F270" s="29"/>
+      <c r="G270" s="27"/>
+      <c r="H270" s="27"/>
+      <c r="I270" s="30"/>
+      <c r="J270" s="30"/>
+    </row>
+    <row r="271" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A271" s="26"/>
+      <c r="B271" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C266" s="49"/>
-      <c r="D266" s="49"/>
-      <c r="E266" s="49"/>
-      <c r="F266" s="49"/>
-      <c r="G266" s="27"/>
-      <c r="H266" s="27"/>
-      <c r="I266" s="31">
-        <f>SUM(I263:I265)</f>
+      <c r="C271" s="40"/>
+      <c r="D271" s="40"/>
+      <c r="E271" s="40"/>
+      <c r="F271" s="40"/>
+      <c r="G271" s="27"/>
+      <c r="H271" s="27"/>
+      <c r="I271" s="31">
+        <f>SUM(I268:I270)</f>
         <v>10000</v>
       </c>
-      <c r="J266" s="31">
-        <f>SUM(J263:J265)</f>
+      <c r="J271" s="31">
+        <f>SUM(J268:J270)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A267" s="32">
+    <row r="272" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A272" s="32">
         <v>45109</v>
       </c>
-      <c r="B267" s="47" t="s">
+      <c r="B272" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="C267" s="47"/>
-      <c r="D267" s="47"/>
-      <c r="E267" s="47"/>
-      <c r="F267" s="47"/>
-      <c r="G267" s="33"/>
-      <c r="H267" s="33"/>
-      <c r="I267" s="34">
-        <f>I261-I266</f>
-        <v>74476.999999999971</v>
-      </c>
-      <c r="J267" s="34">
-        <f>J261-J266</f>
-        <v>46317.999999999985</v>
+      <c r="C272" s="38"/>
+      <c r="D272" s="38"/>
+      <c r="E272" s="38"/>
+      <c r="F272" s="38"/>
+      <c r="G272" s="33"/>
+      <c r="H272" s="33"/>
+      <c r="I272" s="34">
+        <f>I266-I271</f>
+        <v>75376.999999999971</v>
+      </c>
+      <c r="J272" s="34">
+        <f>J266-J271</f>
+        <v>46917.999999999985</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="A229:F229"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="A230:F230"/>
-    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="A245:F245"/>
+    <mergeCell ref="G245:H245"/>
     <mergeCell ref="B237:F237"/>
     <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="G238:H238"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="G242:H242"/>
+    <mergeCell ref="G243:H243"/>
     <mergeCell ref="G240:H240"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B240:F240"/>
     <mergeCell ref="B239:F239"/>
-    <mergeCell ref="G233:H233"/>
-    <mergeCell ref="G234:H234"/>
-    <mergeCell ref="G239:H239"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="G237:H237"/>
-    <mergeCell ref="G238:H238"/>
-    <mergeCell ref="G235:H235"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6390,10 +6441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6560,6 +6611,22 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Actividades realizadas/ActividadesN.xlsx
+++ b/Documents/Actividades realizadas/ActividadesN.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="266">
   <si>
     <t>Descripción</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>Agregar atajo de inventario de producto desde la consulta</t>
+  </si>
+  <si>
+    <t>Agregar sección de Ingreso</t>
   </si>
 </sst>
 </file>
@@ -1042,30 +1045,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,6 +1060,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,6 +1071,27 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1404,7 +1407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1416,7 +1419,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D226" sqref="D226"/>
+      <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,14 +5921,14 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="41" t="s">
+      <c r="A233" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B233" s="41"/>
-      <c r="C233" s="41"/>
-      <c r="D233" s="41"/>
-      <c r="E233" s="41"/>
-      <c r="F233" s="41"/>
+      <c r="B233" s="50"/>
+      <c r="C233" s="50"/>
+      <c r="D233" s="50"/>
+      <c r="E233" s="50"/>
+      <c r="F233" s="50"/>
       <c r="G233" s="17">
         <f>SUM(G2:G232)</f>
         <v>241.78999999999994</v>
@@ -5936,14 +5939,14 @@
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="41" t="s">
+      <c r="A234" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B234" s="41"/>
-      <c r="C234" s="41"/>
-      <c r="D234" s="41"/>
-      <c r="E234" s="41"/>
-      <c r="F234" s="41"/>
+      <c r="B234" s="50"/>
+      <c r="C234" s="50"/>
+      <c r="D234" s="50"/>
+      <c r="E234" s="50"/>
+      <c r="F234" s="50"/>
       <c r="G234" s="17">
         <v>200</v>
       </c>
@@ -5952,14 +5955,14 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="41" t="s">
+      <c r="A235" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B235" s="41"/>
-      <c r="C235" s="41"/>
-      <c r="D235" s="41"/>
-      <c r="E235" s="41"/>
-      <c r="F235" s="41"/>
+      <c r="B235" s="50"/>
+      <c r="C235" s="50"/>
+      <c r="D235" s="50"/>
+      <c r="E235" s="50"/>
+      <c r="F235" s="50"/>
       <c r="G235" s="18">
         <f>G234*G233</f>
         <v>48357.999999999985</v>
@@ -5973,136 +5976,136 @@
       </c>
     </row>
     <row r="236" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A236" s="41" t="s">
+      <c r="A236" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B236" s="41"/>
-      <c r="C236" s="41"/>
-      <c r="D236" s="41"/>
-      <c r="E236" s="41"/>
-      <c r="F236" s="41"/>
-      <c r="G236" s="46">
+      <c r="B236" s="50"/>
+      <c r="C236" s="50"/>
+      <c r="D236" s="50"/>
+      <c r="E236" s="50"/>
+      <c r="F236" s="50"/>
+      <c r="G236" s="38">
         <f>G235+H235</f>
         <v>61197.999999999985</v>
       </c>
-      <c r="H236" s="46"/>
+      <c r="H236" s="38"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
-      <c r="B237" s="49" t="s">
+      <c r="B237" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C237" s="49"/>
-      <c r="D237" s="49"/>
-      <c r="E237" s="49"/>
-      <c r="F237" s="49"/>
+      <c r="C237" s="41"/>
+      <c r="D237" s="41"/>
+      <c r="E237" s="41"/>
+      <c r="F237" s="41"/>
       <c r="G237" s="22"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>45109</v>
       </c>
-      <c r="B238" s="50" t="s">
+      <c r="B238" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C238" s="50"/>
-      <c r="D238" s="50"/>
-      <c r="E238" s="50"/>
-      <c r="F238" s="50"/>
-      <c r="G238" s="51">
+      <c r="C238" s="42"/>
+      <c r="D238" s="42"/>
+      <c r="E238" s="42"/>
+      <c r="F238" s="42"/>
+      <c r="G238" s="44">
         <v>10000</v>
       </c>
-      <c r="H238" s="51"/>
+      <c r="H238" s="44"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
-      <c r="B239" s="53" t="s">
+      <c r="B239" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C239" s="53"/>
-      <c r="D239" s="53"/>
-      <c r="E239" s="53"/>
-      <c r="F239" s="53"/>
-      <c r="G239" s="51">
+      <c r="C239" s="46"/>
+      <c r="D239" s="46"/>
+      <c r="E239" s="46"/>
+      <c r="F239" s="46"/>
+      <c r="G239" s="44">
         <v>5000</v>
       </c>
-      <c r="H239" s="51"/>
+      <c r="H239" s="44"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>45278</v>
       </c>
-      <c r="B240" s="42" t="s">
+      <c r="B240" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C240" s="42"/>
-      <c r="D240" s="42"/>
-      <c r="E240" s="42"/>
-      <c r="F240" s="42"/>
-      <c r="G240" s="51">
+      <c r="C240" s="43"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="44">
         <v>9800</v>
       </c>
-      <c r="H240" s="51"/>
+      <c r="H240" s="44"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
-      <c r="B241" s="42"/>
-      <c r="C241" s="42"/>
-      <c r="D241" s="42"/>
-      <c r="E241" s="42"/>
-      <c r="F241" s="42"/>
-      <c r="G241" s="52"/>
-      <c r="H241" s="52"/>
+      <c r="B241" s="43"/>
+      <c r="C241" s="43"/>
+      <c r="D241" s="43"/>
+      <c r="E241" s="43"/>
+      <c r="F241" s="43"/>
+      <c r="G241" s="45"/>
+      <c r="H241" s="45"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
-      <c r="B242" s="42"/>
-      <c r="C242" s="42"/>
-      <c r="D242" s="42"/>
-      <c r="E242" s="42"/>
-      <c r="F242" s="42"/>
-      <c r="G242" s="52"/>
-      <c r="H242" s="52"/>
+      <c r="B242" s="43"/>
+      <c r="C242" s="43"/>
+      <c r="D242" s="43"/>
+      <c r="E242" s="43"/>
+      <c r="F242" s="43"/>
+      <c r="G242" s="45"/>
+      <c r="H242" s="45"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
-      <c r="B243" s="42"/>
-      <c r="C243" s="42"/>
-      <c r="D243" s="42"/>
-      <c r="E243" s="42"/>
-      <c r="F243" s="42"/>
-      <c r="G243" s="52"/>
-      <c r="H243" s="52"/>
+      <c r="B243" s="43"/>
+      <c r="C243" s="43"/>
+      <c r="D243" s="43"/>
+      <c r="E243" s="43"/>
+      <c r="F243" s="43"/>
+      <c r="G243" s="45"/>
+      <c r="H243" s="45"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
-      <c r="B244" s="42" t="s">
+      <c r="B244" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C244" s="42"/>
-      <c r="D244" s="42"/>
-      <c r="E244" s="42"/>
-      <c r="F244" s="42"/>
-      <c r="G244" s="51">
+      <c r="C244" s="43"/>
+      <c r="D244" s="43"/>
+      <c r="E244" s="43"/>
+      <c r="F244" s="43"/>
+      <c r="G244" s="44">
         <f>SUM(G238:H243)</f>
         <v>24800</v>
       </c>
-      <c r="H244" s="51"/>
+      <c r="H244" s="44"/>
     </row>
     <row r="245" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A245" s="47" t="s">
+      <c r="A245" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B245" s="47"/>
-      <c r="C245" s="47"/>
-      <c r="D245" s="47"/>
-      <c r="E245" s="47"/>
-      <c r="F245" s="47"/>
-      <c r="G245" s="48">
+      <c r="B245" s="39"/>
+      <c r="C245" s="39"/>
+      <c r="D245" s="39"/>
+      <c r="E245" s="39"/>
+      <c r="F245" s="39"/>
+      <c r="G245" s="40">
         <f>G236-G244</f>
         <v>36397.999999999985</v>
       </c>
-      <c r="H245" s="48"/>
+      <c r="H245" s="40"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
@@ -6250,13 +6253,13 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
-      <c r="B264" s="43" t="s">
+      <c r="B264" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C264" s="43"/>
-      <c r="D264" s="43"/>
-      <c r="E264" s="43"/>
-      <c r="F264" s="43"/>
+      <c r="C264" s="51"/>
+      <c r="D264" s="51"/>
+      <c r="E264" s="51"/>
+      <c r="F264" s="51"/>
       <c r="G264" s="21"/>
       <c r="H264" s="21"/>
       <c r="I264" s="8">
@@ -6270,13 +6273,13 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
-      <c r="B265" s="44" t="s">
+      <c r="B265" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C265" s="44"/>
-      <c r="D265" s="44"/>
-      <c r="E265" s="44"/>
-      <c r="F265" s="44"/>
+      <c r="C265" s="52"/>
+      <c r="D265" s="52"/>
+      <c r="E265" s="52"/>
+      <c r="F265" s="52"/>
       <c r="I265" s="8">
         <v>300</v>
       </c>
@@ -6286,13 +6289,13 @@
     </row>
     <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
-      <c r="B266" s="44" t="s">
+      <c r="B266" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C266" s="44"/>
-      <c r="D266" s="44"/>
-      <c r="E266" s="44"/>
-      <c r="F266" s="44"/>
+      <c r="C266" s="52"/>
+      <c r="D266" s="52"/>
+      <c r="E266" s="52"/>
+      <c r="F266" s="52"/>
       <c r="I266" s="9">
         <f>I265*I264</f>
         <v>85376.999999999971</v>
@@ -6304,13 +6307,13 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
-      <c r="B267" s="45" t="s">
+      <c r="B267" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C267" s="45"/>
-      <c r="D267" s="45"/>
-      <c r="E267" s="45"/>
-      <c r="F267" s="45"/>
+      <c r="C267" s="53"/>
+      <c r="D267" s="53"/>
+      <c r="E267" s="53"/>
+      <c r="F267" s="53"/>
       <c r="G267" s="24"/>
       <c r="H267" s="24"/>
       <c r="I267" s="25"/>
@@ -6320,13 +6323,13 @@
       <c r="A268" s="26">
         <v>45109</v>
       </c>
-      <c r="B268" s="39" t="s">
+      <c r="B268" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C268" s="39"/>
-      <c r="D268" s="39"/>
-      <c r="E268" s="39"/>
-      <c r="F268" s="39"/>
+      <c r="C268" s="48"/>
+      <c r="D268" s="48"/>
+      <c r="E268" s="48"/>
+      <c r="F268" s="48"/>
       <c r="G268" s="27"/>
       <c r="H268" s="27"/>
       <c r="I268" s="28">
@@ -6362,13 +6365,13 @@
     </row>
     <row r="271" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A271" s="26"/>
-      <c r="B271" s="40" t="s">
+      <c r="B271" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C271" s="40"/>
-      <c r="D271" s="40"/>
-      <c r="E271" s="40"/>
-      <c r="F271" s="40"/>
+      <c r="C271" s="49"/>
+      <c r="D271" s="49"/>
+      <c r="E271" s="49"/>
+      <c r="F271" s="49"/>
       <c r="G271" s="27"/>
       <c r="H271" s="27"/>
       <c r="I271" s="31">
@@ -6384,13 +6387,13 @@
       <c r="A272" s="32">
         <v>45109</v>
       </c>
-      <c r="B272" s="38" t="s">
+      <c r="B272" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C272" s="38"/>
-      <c r="D272" s="38"/>
-      <c r="E272" s="38"/>
-      <c r="F272" s="38"/>
+      <c r="C272" s="47"/>
+      <c r="D272" s="47"/>
+      <c r="E272" s="47"/>
+      <c r="F272" s="47"/>
       <c r="G272" s="33"/>
       <c r="H272" s="33"/>
       <c r="I272" s="34">
@@ -6404,6 +6407,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A236:F236"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
     <mergeCell ref="G236:H236"/>
     <mergeCell ref="A245:F245"/>
     <mergeCell ref="G245:H245"/>
@@ -6420,19 +6436,6 @@
     <mergeCell ref="B240:F240"/>
     <mergeCell ref="B239:F239"/>
     <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6441,10 +6444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6627,6 +6630,11 @@
       </c>
       <c r="E16" s="36" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Actividades realizadas/ActividadesN.xlsx
+++ b/Documents/Actividades realizadas/ActividadesN.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="8250"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HORAS" sheetId="1" r:id="rId1"/>
     <sheet name="Pendientes" sheetId="3" r:id="rId2"/>
     <sheet name="Cotización vs Real" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="283">
   <si>
     <t>Descripción</t>
   </si>
@@ -830,6 +830,57 @@
   </si>
   <si>
     <t>Agregar sección de Ingreso</t>
+  </si>
+  <si>
+    <t>agregar quien crea el dinero electrónico</t>
+  </si>
+  <si>
+    <t>obligatoria la descripción al agregar dinero electrónico de forma manual</t>
+  </si>
+  <si>
+    <t>en la cancelación de pago, que sea obligatorio seleccionar una de las dos ociones, dinero electronico o el egreso</t>
+  </si>
+  <si>
+    <t>Se deshabilita el check en la pantalla de clientes, deshabilitar check de activos en clientes, usuarios y roles</t>
+  </si>
+  <si>
+    <t>Agregar status a los sobres de taller</t>
+  </si>
+  <si>
+    <t>Se agrega Estatus de sobre de taller</t>
+  </si>
+  <si>
+    <t>Agregar export a Excel el inventario físico</t>
+  </si>
+  <si>
+    <t>Agregar botones de export a excel</t>
+  </si>
+  <si>
+    <t>Cancelar una venta y que se cancelen los pagos</t>
+  </si>
+  <si>
+    <t>Se agrega Ingresos manuales</t>
+  </si>
+  <si>
+    <t>Se modifican los Cortes de caja para considerar los ingresos Manuales</t>
+  </si>
+  <si>
+    <t>Se optimiza el Corte de caja para no manejar transacciones</t>
+  </si>
+  <si>
+    <t>Agregar lista de Egresos, Ingresos y pagos cancelados en la pantalla de Corte de caja</t>
+  </si>
+  <si>
+    <t>Reporte de Pagos cancelados</t>
+  </si>
+  <si>
+    <t>Cancelación de los ingresos con autorización</t>
+  </si>
+  <si>
+    <t>Cancelación de los ingresos con autorización y revisión de impresión de ticket para corte de caja</t>
+  </si>
+  <si>
+    <t>Reporte de pagos cancelados</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1019,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,6 +1096,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,11 +1470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K272"/>
+  <dimension ref="A1:K283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1532,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1500,7 +1555,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -1526,7 +1581,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
@@ -1552,7 +1607,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="39" t="s">
         <v>85</v>
       </c>
       <c r="D5" t="s">
@@ -1578,7 +1633,7 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="39" t="s">
         <v>85</v>
       </c>
       <c r="D6" t="s">
@@ -1604,7 +1659,7 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="39" t="s">
         <v>85</v>
       </c>
       <c r="D7" t="s">
@@ -1630,7 +1685,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
@@ -1656,7 +1711,7 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
@@ -1682,7 +1737,7 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
@@ -1708,7 +1763,7 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
@@ -1734,7 +1789,7 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
@@ -1760,7 +1815,7 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
@@ -1786,7 +1841,7 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="39" t="s">
         <v>105</v>
       </c>
       <c r="D14" t="s">
@@ -1812,7 +1867,7 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
@@ -1838,7 +1893,7 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
@@ -1864,7 +1919,7 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
@@ -1890,7 +1945,7 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
@@ -1916,7 +1971,7 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D19" t="s">
@@ -1942,7 +1997,7 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D20" t="s">
@@ -1968,7 +2023,7 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D21" t="s">
@@ -1994,7 +2049,7 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D22" t="s">
@@ -2020,7 +2075,7 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D23" t="s">
@@ -2044,6 +2099,7 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
+      <c r="C24" s="39"/>
       <c r="E24" s="2">
         <v>0.14583333333333334</v>
       </c>
@@ -2064,7 +2120,7 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D25" t="s">
@@ -2090,7 +2146,7 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D26" t="s">
@@ -2116,7 +2172,7 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D27" t="s">
@@ -2142,7 +2198,7 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D28" t="s">
@@ -2166,6 +2222,7 @@
       <c r="B29" t="s">
         <v>6</v>
       </c>
+      <c r="C29" s="39"/>
       <c r="E29" s="2">
         <v>0.5</v>
       </c>
@@ -2186,7 +2243,7 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D30" t="s">
@@ -2212,7 +2269,7 @@
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D31" t="s">
@@ -2236,6 +2293,7 @@
       <c r="B32" t="s">
         <v>6</v>
       </c>
+      <c r="C32" s="39"/>
       <c r="E32" s="2">
         <v>0.38194444444444442</v>
       </c>
@@ -2256,7 +2314,7 @@
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D33" t="s">
@@ -2282,7 +2340,7 @@
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D34" t="s">
@@ -2308,7 +2366,7 @@
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D35" t="s">
@@ -2334,7 +2392,7 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="39" t="s">
         <v>120</v>
       </c>
       <c r="E36" s="2">
@@ -2357,7 +2415,7 @@
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="39" t="s">
         <v>120</v>
       </c>
       <c r="D37" t="s">
@@ -2383,7 +2441,7 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="39" t="s">
         <v>105</v>
       </c>
       <c r="D38" t="s">
@@ -2409,7 +2467,7 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="39" t="s">
         <v>125</v>
       </c>
       <c r="D39" t="s">
@@ -2435,7 +2493,7 @@
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="39" t="s">
         <v>127</v>
       </c>
       <c r="D40" t="s">
@@ -2459,6 +2517,7 @@
       <c r="B41" t="s">
         <v>6</v>
       </c>
+      <c r="C41" s="39"/>
       <c r="E41" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -2477,6 +2536,7 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
+      <c r="C42" s="39"/>
       <c r="E42" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -2495,6 +2555,7 @@
       <c r="B43" t="s">
         <v>6</v>
       </c>
+      <c r="C43" s="39"/>
       <c r="E43" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -2515,7 +2576,7 @@
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="39" t="s">
         <v>129</v>
       </c>
       <c r="D44" t="s">
@@ -2539,6 +2600,7 @@
       <c r="B45" t="s">
         <v>6</v>
       </c>
+      <c r="C45" s="39"/>
       <c r="E45" s="2">
         <v>0.2638888888888889</v>
       </c>
@@ -2557,6 +2619,7 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
+      <c r="C46" s="39"/>
       <c r="E46" s="2">
         <v>0.4513888888888889</v>
       </c>
@@ -2577,7 +2640,7 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D47" t="s">
@@ -2603,7 +2666,7 @@
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D48" t="s">
@@ -2627,6 +2690,7 @@
       <c r="B49" t="s">
         <v>6</v>
       </c>
+      <c r="C49" s="39"/>
       <c r="E49" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -2645,6 +2709,7 @@
       <c r="B50" t="s">
         <v>6</v>
       </c>
+      <c r="C50" s="39"/>
       <c r="E50" s="2">
         <v>6.25E-2</v>
       </c>
@@ -2663,6 +2728,7 @@
       <c r="B51" t="s">
         <v>6</v>
       </c>
+      <c r="C51" s="39"/>
       <c r="E51" s="2">
         <v>0.18055555555555555</v>
       </c>
@@ -2681,6 +2747,7 @@
       <c r="B52" t="s">
         <v>6</v>
       </c>
+      <c r="C52" s="39"/>
       <c r="E52" s="2">
         <v>0.3298611111111111</v>
       </c>
@@ -2699,6 +2766,7 @@
       <c r="B53" t="s">
         <v>6</v>
       </c>
+      <c r="C53" s="39"/>
       <c r="E53" s="2">
         <v>0.40972222222222227</v>
       </c>
@@ -2712,6 +2780,7 @@
       <c r="B54" t="s">
         <v>6</v>
       </c>
+      <c r="C54" s="39"/>
       <c r="E54" s="2">
         <v>0.4284722222222222</v>
       </c>
@@ -2732,7 +2801,7 @@
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="39" t="s">
         <v>133</v>
       </c>
       <c r="D55" t="s">
@@ -2756,6 +2825,7 @@
       <c r="B56" t="s">
         <v>6</v>
       </c>
+      <c r="C56" s="39"/>
       <c r="E56" s="2">
         <v>0.5</v>
       </c>
@@ -2774,6 +2844,7 @@
       <c r="B57" t="s">
         <v>6</v>
       </c>
+      <c r="C57" s="39"/>
       <c r="E57" s="2">
         <v>0.125</v>
       </c>
@@ -2792,6 +2863,7 @@
       <c r="B58" t="s">
         <v>6</v>
       </c>
+      <c r="C58" s="39"/>
       <c r="E58" s="2">
         <v>0.16666666666666666</v>
       </c>
@@ -2812,7 +2884,7 @@
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D59" t="s">
@@ -2838,7 +2910,7 @@
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D60" t="s">
@@ -2864,7 +2936,7 @@
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D61" t="s">
@@ -2890,7 +2962,7 @@
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D62" t="s">
@@ -2916,7 +2988,7 @@
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="39" t="s">
         <v>110</v>
       </c>
       <c r="D63" t="s">
@@ -2942,7 +3014,7 @@
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="39" t="s">
         <v>136</v>
       </c>
       <c r="D64" t="s">
@@ -2961,6 +3033,7 @@
       <c r="B65" t="s">
         <v>6</v>
       </c>
+      <c r="C65" s="39"/>
       <c r="E65" s="2">
         <v>0.4375</v>
       </c>
@@ -2979,6 +3052,7 @@
       <c r="B66" t="s">
         <v>6</v>
       </c>
+      <c r="C66" s="39"/>
       <c r="E66" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -2999,6 +3073,7 @@
       <c r="B67" t="s">
         <v>6</v>
       </c>
+      <c r="C67" s="39"/>
       <c r="D67" t="s">
         <v>145</v>
       </c>
@@ -3019,6 +3094,7 @@
       <c r="B68" t="s">
         <v>6</v>
       </c>
+      <c r="C68" s="39"/>
       <c r="D68" t="s">
         <v>145</v>
       </c>
@@ -3042,6 +3118,7 @@
       <c r="B69" t="s">
         <v>6</v>
       </c>
+      <c r="C69" s="39"/>
       <c r="D69" t="s">
         <v>145</v>
       </c>
@@ -3065,6 +3142,7 @@
       <c r="B70" t="s">
         <v>6</v>
       </c>
+      <c r="C70" s="39"/>
       <c r="D70" t="s">
         <v>145</v>
       </c>
@@ -3088,6 +3166,7 @@
       <c r="B71" t="s">
         <v>6</v>
       </c>
+      <c r="C71" s="39"/>
       <c r="D71" t="s">
         <v>145</v>
       </c>
@@ -3109,6 +3188,7 @@
       <c r="B72" t="s">
         <v>6</v>
       </c>
+      <c r="C72" s="39"/>
       <c r="E72" s="2">
         <v>0.39583333333333331</v>
       </c>
@@ -3127,6 +3207,7 @@
       <c r="B73" t="s">
         <v>6</v>
       </c>
+      <c r="C73" s="39"/>
       <c r="E73" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -3140,6 +3221,7 @@
       <c r="B74" t="s">
         <v>6</v>
       </c>
+      <c r="C74" s="39"/>
       <c r="D74" t="s">
         <v>146</v>
       </c>
@@ -3161,6 +3243,7 @@
       <c r="B75" t="s">
         <v>6</v>
       </c>
+      <c r="C75" s="39"/>
       <c r="E75" s="2">
         <v>0.4375</v>
       </c>
@@ -3179,6 +3262,7 @@
       <c r="B76" t="s">
         <v>6</v>
       </c>
+      <c r="C76" s="39"/>
       <c r="E76" s="2">
         <v>0.5229166666666667</v>
       </c>
@@ -3197,6 +3281,7 @@
       <c r="B77" t="s">
         <v>6</v>
       </c>
+      <c r="C77" s="39"/>
       <c r="E77" s="2">
         <v>7.8472222222222221E-2</v>
       </c>
@@ -3215,6 +3300,7 @@
       <c r="B78" t="s">
         <v>6</v>
       </c>
+      <c r="C78" s="39"/>
       <c r="D78" t="s">
         <v>147</v>
       </c>
@@ -3236,6 +3322,7 @@
       <c r="B79" t="s">
         <v>6</v>
       </c>
+      <c r="C79" s="39"/>
       <c r="E79" s="2">
         <v>0.31944444444444448</v>
       </c>
@@ -3254,6 +3341,7 @@
       <c r="B80" t="s">
         <v>6</v>
       </c>
+      <c r="C80" s="39"/>
       <c r="E80" s="2">
         <v>0.45208333333333334</v>
       </c>
@@ -3272,6 +3360,7 @@
       <c r="B81" t="s">
         <v>6</v>
       </c>
+      <c r="C81" s="39"/>
       <c r="E81" s="2">
         <v>0.375</v>
       </c>
@@ -3290,6 +3379,7 @@
       <c r="B82" t="s">
         <v>6</v>
       </c>
+      <c r="C82" s="39"/>
       <c r="E82" s="2">
         <v>0.375</v>
       </c>
@@ -3308,6 +3398,7 @@
       <c r="B83" t="s">
         <v>6</v>
       </c>
+      <c r="C83" s="39"/>
       <c r="E83" s="2">
         <v>0.4236111111111111</v>
       </c>
@@ -3326,6 +3417,7 @@
       <c r="B84" t="s">
         <v>6</v>
       </c>
+      <c r="C84" s="39"/>
       <c r="E84" s="2">
         <v>0.47916666666666669</v>
       </c>
@@ -3344,6 +3436,7 @@
       <c r="B85" t="s">
         <v>6</v>
       </c>
+      <c r="C85" s="39"/>
       <c r="E85" s="2">
         <v>0.53472222222222221</v>
       </c>
@@ -3362,6 +3455,7 @@
       <c r="B86" t="s">
         <v>6</v>
       </c>
+      <c r="C86" s="39"/>
       <c r="E86" s="2">
         <v>0.15277777777777776</v>
       </c>
@@ -3380,6 +3474,7 @@
       <c r="B87" t="s">
         <v>6</v>
       </c>
+      <c r="C87" s="39"/>
       <c r="E87" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -3398,6 +3493,7 @@
       <c r="B88" t="s">
         <v>6</v>
       </c>
+      <c r="C88" s="39"/>
       <c r="E88" s="2">
         <v>0.40277777777777773</v>
       </c>
@@ -3416,6 +3512,7 @@
       <c r="B89" t="s">
         <v>6</v>
       </c>
+      <c r="C89" s="39"/>
       <c r="E89" s="2">
         <v>0.46249999999999997</v>
       </c>
@@ -3434,6 +3531,7 @@
       <c r="B90" t="s">
         <v>6</v>
       </c>
+      <c r="C90" s="39"/>
       <c r="E90" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -3452,6 +3550,7 @@
       <c r="B91" t="s">
         <v>6</v>
       </c>
+      <c r="C91" s="39"/>
       <c r="E91" s="2">
         <v>4.8611111111111112E-2</v>
       </c>
@@ -3470,6 +3569,7 @@
       <c r="B92" t="s">
         <v>6</v>
       </c>
+      <c r="C92" s="39"/>
       <c r="D92" t="s">
         <v>148</v>
       </c>
@@ -3491,6 +3591,7 @@
       <c r="B93" t="s">
         <v>6</v>
       </c>
+      <c r="C93" s="39"/>
       <c r="E93" s="2">
         <v>0.12847222222222224</v>
       </c>
@@ -3509,6 +3610,7 @@
       <c r="B94" t="s">
         <v>6</v>
       </c>
+      <c r="C94" s="39"/>
       <c r="E94" s="2">
         <v>0.17361111111111113</v>
       </c>
@@ -3527,6 +3629,7 @@
       <c r="B95" t="s">
         <v>6</v>
       </c>
+      <c r="C95" s="39"/>
       <c r="E95" s="2">
         <v>0.25</v>
       </c>
@@ -3540,6 +3643,7 @@
       <c r="B96" t="s">
         <v>6</v>
       </c>
+      <c r="C96" s="39"/>
       <c r="E96" s="2">
         <v>0.26041666666666669</v>
       </c>
@@ -3558,6 +3662,7 @@
       <c r="B97" t="s">
         <v>6</v>
       </c>
+      <c r="C97" s="39"/>
       <c r="E97" s="2">
         <v>0.375</v>
       </c>
@@ -3576,6 +3681,7 @@
       <c r="B98" t="s">
         <v>6</v>
       </c>
+      <c r="C98" s="39"/>
       <c r="D98" t="s">
         <v>149</v>
       </c>
@@ -3597,6 +3703,7 @@
       <c r="B99" t="s">
         <v>6</v>
       </c>
+      <c r="C99" s="39"/>
       <c r="E99" s="2">
         <v>0.125</v>
       </c>
@@ -3615,6 +3722,7 @@
       <c r="B100" t="s">
         <v>6</v>
       </c>
+      <c r="C100" s="39"/>
       <c r="E100" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -3633,6 +3741,7 @@
       <c r="B101" t="s">
         <v>6</v>
       </c>
+      <c r="C101" s="39"/>
       <c r="E101" s="2">
         <v>0.5</v>
       </c>
@@ -3651,6 +3760,7 @@
       <c r="B102" t="s">
         <v>6</v>
       </c>
+      <c r="C102" s="39"/>
       <c r="E102" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3669,6 +3779,7 @@
       <c r="B103" t="s">
         <v>6</v>
       </c>
+      <c r="C103" s="39"/>
       <c r="E103" s="2">
         <v>0.3125</v>
       </c>
@@ -3687,6 +3798,7 @@
       <c r="B104" t="s">
         <v>6</v>
       </c>
+      <c r="C104" s="39"/>
       <c r="E104" s="2">
         <v>0.3611111111111111</v>
       </c>
@@ -3705,6 +3817,7 @@
       <c r="B105" t="s">
         <v>6</v>
       </c>
+      <c r="C105" s="39"/>
       <c r="E105" s="2">
         <v>0.4236111111111111</v>
       </c>
@@ -3723,6 +3836,7 @@
       <c r="B106" t="s">
         <v>6</v>
       </c>
+      <c r="C106" s="39"/>
       <c r="E106" s="2">
         <v>0.45833333333333331</v>
       </c>
@@ -3741,6 +3855,7 @@
       <c r="B107" t="s">
         <v>6</v>
       </c>
+      <c r="C107" s="39"/>
       <c r="E107" s="2">
         <v>5.8333333333333327E-2</v>
       </c>
@@ -3759,6 +3874,7 @@
       <c r="B108" t="s">
         <v>6</v>
       </c>
+      <c r="C108" s="39"/>
       <c r="E108" s="2">
         <v>9.375E-2</v>
       </c>
@@ -3777,6 +3893,7 @@
       <c r="B109" t="s">
         <v>6</v>
       </c>
+      <c r="C109" s="39"/>
       <c r="E109" s="2">
         <v>0.4375</v>
       </c>
@@ -3795,6 +3912,7 @@
       <c r="B110" t="s">
         <v>6</v>
       </c>
+      <c r="C110" s="39"/>
       <c r="E110" s="2">
         <v>0.47569444444444442</v>
       </c>
@@ -3813,6 +3931,7 @@
       <c r="B111" t="s">
         <v>6</v>
       </c>
+      <c r="C111" s="39"/>
       <c r="E111" s="2">
         <v>0.4861111111111111</v>
       </c>
@@ -3831,6 +3950,7 @@
       <c r="B112" t="s">
         <v>6</v>
       </c>
+      <c r="C112" s="39"/>
       <c r="E112" s="2">
         <v>0.51736111111111105</v>
       </c>
@@ -3849,6 +3969,7 @@
       <c r="B113" t="s">
         <v>6</v>
       </c>
+      <c r="C113" s="39"/>
       <c r="E113" s="2">
         <v>0.52777777777777779</v>
       </c>
@@ -3867,6 +3988,7 @@
       <c r="B114" t="s">
         <v>6</v>
       </c>
+      <c r="C114" s="39"/>
       <c r="E114" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3885,6 +4007,7 @@
       <c r="B115" t="s">
         <v>6</v>
       </c>
+      <c r="C115" s="39"/>
       <c r="E115" s="2">
         <v>0.13055555555555556</v>
       </c>
@@ -3903,6 +4026,7 @@
       <c r="B116" t="s">
         <v>6</v>
       </c>
+      <c r="C116" s="39"/>
       <c r="E116" s="2">
         <v>0.18055555555555555</v>
       </c>
@@ -3921,6 +4045,7 @@
       <c r="B117" t="s">
         <v>6</v>
       </c>
+      <c r="C117" s="39"/>
       <c r="E117" s="2">
         <v>0.1875</v>
       </c>
@@ -3939,6 +4064,7 @@
       <c r="B118" t="s">
         <v>6</v>
       </c>
+      <c r="C118" s="39"/>
       <c r="E118" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -3957,6 +4083,7 @@
       <c r="B119" t="s">
         <v>6</v>
       </c>
+      <c r="C119" s="39"/>
       <c r="E119" s="2">
         <v>6.5277777777777782E-2</v>
       </c>
@@ -3975,6 +4102,7 @@
       <c r="B120" t="s">
         <v>6</v>
       </c>
+      <c r="C120" s="39"/>
       <c r="E120" s="2">
         <v>0.36180555555555555</v>
       </c>
@@ -3993,6 +4121,7 @@
       <c r="B121" t="s">
         <v>6</v>
       </c>
+      <c r="C121" s="39"/>
       <c r="E121" s="2">
         <v>0.3979166666666667</v>
       </c>
@@ -4011,6 +4140,7 @@
       <c r="B122" t="s">
         <v>6</v>
       </c>
+      <c r="C122" s="39"/>
       <c r="E122" s="2">
         <v>0.43194444444444446</v>
       </c>
@@ -4029,6 +4159,7 @@
       <c r="B123" t="s">
         <v>6</v>
       </c>
+      <c r="C123" s="39"/>
       <c r="E123" s="2">
         <v>0.4597222222222222</v>
       </c>
@@ -4047,6 +4178,7 @@
       <c r="B124" t="s">
         <v>6</v>
       </c>
+      <c r="C124" s="39"/>
       <c r="E124" s="2">
         <v>0.48333333333333334</v>
       </c>
@@ -4065,6 +4197,7 @@
       <c r="B125" t="s">
         <v>6</v>
       </c>
+      <c r="C125" s="39"/>
       <c r="E125" s="2">
         <v>6.9444444444444434E-2</v>
       </c>
@@ -4083,6 +4216,7 @@
       <c r="B126" t="s">
         <v>6</v>
       </c>
+      <c r="C126" s="39"/>
       <c r="E126" s="2">
         <v>0.17361111111111113</v>
       </c>
@@ -4101,6 +4235,7 @@
       <c r="B127" t="s">
         <v>6</v>
       </c>
+      <c r="C127" s="39"/>
       <c r="E127" s="2">
         <v>0.19999999999999998</v>
       </c>
@@ -4119,6 +4254,7 @@
       <c r="B128" t="s">
         <v>6</v>
       </c>
+      <c r="C128" s="39"/>
       <c r="E128" s="2">
         <v>0.27083333333333331</v>
       </c>
@@ -4137,6 +4273,7 @@
       <c r="B129" t="s">
         <v>6</v>
       </c>
+      <c r="C129" s="39"/>
       <c r="E129" s="2">
         <v>0.47222222222222227</v>
       </c>
@@ -4155,6 +4292,7 @@
       <c r="B130" t="s">
         <v>6</v>
       </c>
+      <c r="C130" s="39"/>
       <c r="E130" s="2">
         <v>0.26874999999999999</v>
       </c>
@@ -4173,6 +4311,7 @@
       <c r="B131" t="s">
         <v>6</v>
       </c>
+      <c r="C131" s="39"/>
       <c r="E131" s="2">
         <v>0.31944444444444448</v>
       </c>
@@ -4191,6 +4330,7 @@
       <c r="B132" t="s">
         <v>6</v>
       </c>
+      <c r="C132" s="39"/>
       <c r="E132" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -4209,6 +4349,7 @@
       <c r="B133" t="s">
         <v>6</v>
       </c>
+      <c r="C133" s="39"/>
       <c r="E133" s="2">
         <v>0.46388888888888885</v>
       </c>
@@ -4222,6 +4363,7 @@
       <c r="B134" t="s">
         <v>6</v>
       </c>
+      <c r="C134" s="39"/>
       <c r="E134" s="2">
         <v>0.48888888888888887</v>
       </c>
@@ -4240,6 +4382,7 @@
       <c r="B135" t="s">
         <v>6</v>
       </c>
+      <c r="C135" s="39"/>
       <c r="E135" s="2">
         <v>5.5555555555555552E-2</v>
       </c>
@@ -4258,6 +4401,7 @@
       <c r="B136" t="s">
         <v>6</v>
       </c>
+      <c r="C136" s="39"/>
       <c r="E136" s="2">
         <v>0.13055555555555556</v>
       </c>
@@ -4271,6 +4415,7 @@
       <c r="B137" t="s">
         <v>6</v>
       </c>
+      <c r="C137" s="39"/>
       <c r="E137" s="2">
         <v>0.13958333333333334</v>
       </c>
@@ -4284,6 +4429,7 @@
       <c r="B138" t="s">
         <v>6</v>
       </c>
+      <c r="C138" s="39"/>
       <c r="E138" s="2">
         <v>0.44166666666666665</v>
       </c>
@@ -4302,6 +4448,7 @@
       <c r="B139" t="s">
         <v>6</v>
       </c>
+      <c r="C139" s="39"/>
       <c r="E139" s="2">
         <v>0.4375</v>
       </c>
@@ -4315,6 +4462,7 @@
       <c r="B140" t="s">
         <v>6</v>
       </c>
+      <c r="C140" s="39"/>
       <c r="D140" s="14" t="s">
         <v>150</v>
       </c>
@@ -4337,6 +4485,7 @@
       <c r="B141" t="s">
         <v>6</v>
       </c>
+      <c r="C141" s="39"/>
       <c r="E141" s="2">
         <v>0.20972222222222223</v>
       </c>
@@ -4356,6 +4505,7 @@
       <c r="B142" t="s">
         <v>6</v>
       </c>
+      <c r="C142" s="39"/>
       <c r="D142" t="s">
         <v>151</v>
       </c>
@@ -4381,6 +4531,7 @@
       <c r="B143" t="s">
         <v>6</v>
       </c>
+      <c r="C143" s="39"/>
       <c r="D143" t="s">
         <v>155</v>
       </c>
@@ -4403,6 +4554,7 @@
       <c r="B144" t="s">
         <v>6</v>
       </c>
+      <c r="C144" s="39"/>
       <c r="D144" t="s">
         <v>156</v>
       </c>
@@ -4425,6 +4577,7 @@
       <c r="B145" t="s">
         <v>6</v>
       </c>
+      <c r="C145" s="39"/>
       <c r="D145" t="s">
         <v>157</v>
       </c>
@@ -4447,6 +4600,7 @@
       <c r="B146" t="s">
         <v>6</v>
       </c>
+      <c r="C146" s="39"/>
       <c r="D146" t="s">
         <v>158</v>
       </c>
@@ -4469,6 +4623,7 @@
       <c r="B147" t="s">
         <v>6</v>
       </c>
+      <c r="C147" s="39"/>
       <c r="D147" t="s">
         <v>158</v>
       </c>
@@ -4491,6 +4646,7 @@
       <c r="B148" t="s">
         <v>6</v>
       </c>
+      <c r="C148" s="39"/>
       <c r="D148" t="s">
         <v>159</v>
       </c>
@@ -4513,6 +4669,7 @@
       <c r="B149" t="s">
         <v>6</v>
       </c>
+      <c r="C149" s="39"/>
       <c r="D149" t="s">
         <v>160</v>
       </c>
@@ -4535,6 +4692,7 @@
       <c r="B150" t="s">
         <v>6</v>
       </c>
+      <c r="C150" s="39"/>
       <c r="D150" t="s">
         <v>161</v>
       </c>
@@ -4557,6 +4715,7 @@
       <c r="B151" t="s">
         <v>6</v>
       </c>
+      <c r="C151" s="39"/>
       <c r="D151" t="s">
         <v>162</v>
       </c>
@@ -4579,6 +4738,7 @@
       <c r="B152" t="s">
         <v>6</v>
       </c>
+      <c r="C152" s="39"/>
       <c r="D152" t="s">
         <v>163</v>
       </c>
@@ -4601,6 +4761,7 @@
       <c r="B153" t="s">
         <v>6</v>
       </c>
+      <c r="C153" s="39"/>
       <c r="D153" t="s">
         <v>164</v>
       </c>
@@ -4623,6 +4784,7 @@
       <c r="B154" t="s">
         <v>6</v>
       </c>
+      <c r="C154" s="39"/>
       <c r="D154" t="s">
         <v>167</v>
       </c>
@@ -4641,6 +4803,7 @@
       <c r="B155" t="s">
         <v>6</v>
       </c>
+      <c r="C155" s="39"/>
       <c r="D155" t="s">
         <v>168</v>
       </c>
@@ -4659,6 +4822,7 @@
       <c r="B156" t="s">
         <v>6</v>
       </c>
+      <c r="C156" s="39"/>
       <c r="D156" t="s">
         <v>169</v>
       </c>
@@ -4677,6 +4841,7 @@
       <c r="B157" t="s">
         <v>6</v>
       </c>
+      <c r="C157" s="39"/>
       <c r="D157" t="s">
         <v>170</v>
       </c>
@@ -4697,6 +4862,7 @@
       <c r="B158" t="s">
         <v>6</v>
       </c>
+      <c r="C158" s="39"/>
       <c r="D158" t="s">
         <v>171</v>
       </c>
@@ -4717,6 +4883,7 @@
       <c r="B159" t="s">
         <v>6</v>
       </c>
+      <c r="C159" s="39"/>
       <c r="D159" t="s">
         <v>172</v>
       </c>
@@ -4737,6 +4904,7 @@
       <c r="B160" t="s">
         <v>6</v>
       </c>
+      <c r="C160" s="39"/>
       <c r="D160" t="s">
         <v>173</v>
       </c>
@@ -4753,6 +4921,7 @@
       <c r="B161" t="s">
         <v>6</v>
       </c>
+      <c r="C161" s="39"/>
       <c r="D161" t="s">
         <v>174</v>
       </c>
@@ -4769,6 +4938,7 @@
       <c r="B162" t="s">
         <v>6</v>
       </c>
+      <c r="C162" s="39"/>
       <c r="D162" t="s">
         <v>175</v>
       </c>
@@ -4787,6 +4957,7 @@
       <c r="B163" t="s">
         <v>6</v>
       </c>
+      <c r="C163" s="39"/>
       <c r="D163" t="s">
         <v>176</v>
       </c>
@@ -4805,6 +4976,7 @@
       <c r="B164" t="s">
         <v>6</v>
       </c>
+      <c r="C164" s="39"/>
       <c r="D164" s="14" t="s">
         <v>177</v>
       </c>
@@ -4823,6 +4995,7 @@
       <c r="B165" t="s">
         <v>6</v>
       </c>
+      <c r="C165" s="39"/>
       <c r="D165" t="s">
         <v>179</v>
       </c>
@@ -4841,6 +5014,7 @@
       <c r="B166" t="s">
         <v>6</v>
       </c>
+      <c r="C166" s="39"/>
       <c r="D166" t="s">
         <v>180</v>
       </c>
@@ -4859,6 +5033,7 @@
       <c r="B167" t="s">
         <v>6</v>
       </c>
+      <c r="C167" s="39"/>
       <c r="D167" t="s">
         <v>181</v>
       </c>
@@ -4877,6 +5052,7 @@
       <c r="B168" t="s">
         <v>6</v>
       </c>
+      <c r="C168" s="39"/>
       <c r="D168" t="s">
         <v>182</v>
       </c>
@@ -4895,6 +5071,7 @@
       <c r="B169" t="s">
         <v>6</v>
       </c>
+      <c r="C169" s="39"/>
       <c r="D169" t="s">
         <v>183</v>
       </c>
@@ -4913,6 +5090,7 @@
       <c r="B170" t="s">
         <v>6</v>
       </c>
+      <c r="C170" s="39"/>
       <c r="D170" t="s">
         <v>184</v>
       </c>
@@ -4931,6 +5109,7 @@
       <c r="B171" t="s">
         <v>6</v>
       </c>
+      <c r="C171" s="39"/>
       <c r="D171" t="s">
         <v>185</v>
       </c>
@@ -4949,6 +5128,7 @@
       <c r="B172" t="s">
         <v>6</v>
       </c>
+      <c r="C172" s="39"/>
       <c r="D172" t="s">
         <v>186</v>
       </c>
@@ -4967,6 +5147,7 @@
       <c r="B173" t="s">
         <v>6</v>
       </c>
+      <c r="C173" s="39"/>
       <c r="D173" t="s">
         <v>187</v>
       </c>
@@ -4985,6 +5166,7 @@
       <c r="B174" t="s">
         <v>6</v>
       </c>
+      <c r="C174" s="39"/>
       <c r="D174" t="s">
         <v>188</v>
       </c>
@@ -5005,6 +5187,7 @@
       <c r="B175" t="s">
         <v>6</v>
       </c>
+      <c r="C175" s="39"/>
       <c r="D175" t="s">
         <v>189</v>
       </c>
@@ -5025,6 +5208,7 @@
       <c r="B176" t="s">
         <v>6</v>
       </c>
+      <c r="C176" s="39"/>
       <c r="D176" t="s">
         <v>190</v>
       </c>
@@ -5045,6 +5229,7 @@
       <c r="B177" t="s">
         <v>6</v>
       </c>
+      <c r="C177" s="39"/>
       <c r="D177" t="s">
         <v>191</v>
       </c>
@@ -5061,6 +5246,7 @@
       <c r="B178" t="s">
         <v>6</v>
       </c>
+      <c r="C178" s="39"/>
       <c r="D178" t="s">
         <v>192</v>
       </c>
@@ -5077,6 +5263,7 @@
       <c r="B179" t="s">
         <v>6</v>
       </c>
+      <c r="C179" s="39"/>
       <c r="D179" t="s">
         <v>193</v>
       </c>
@@ -5093,6 +5280,7 @@
       <c r="B180" t="s">
         <v>6</v>
       </c>
+      <c r="C180" s="39"/>
       <c r="D180" t="s">
         <v>194</v>
       </c>
@@ -5113,6 +5301,7 @@
       <c r="B181" t="s">
         <v>6</v>
       </c>
+      <c r="C181" s="39"/>
       <c r="D181" t="s">
         <v>195</v>
       </c>
@@ -5133,6 +5322,7 @@
       <c r="B182" t="s">
         <v>6</v>
       </c>
+      <c r="C182" s="39"/>
       <c r="D182" t="s">
         <v>196</v>
       </c>
@@ -5153,6 +5343,7 @@
       <c r="B183" t="s">
         <v>6</v>
       </c>
+      <c r="C183" s="39"/>
       <c r="D183" t="s">
         <v>197</v>
       </c>
@@ -5173,6 +5364,7 @@
       <c r="B184" t="s">
         <v>6</v>
       </c>
+      <c r="C184" s="39"/>
       <c r="D184" t="s">
         <v>198</v>
       </c>
@@ -5193,6 +5385,7 @@
       <c r="B185" t="s">
         <v>6</v>
       </c>
+      <c r="C185" s="39"/>
       <c r="D185" t="s">
         <v>199</v>
       </c>
@@ -5213,6 +5406,7 @@
       <c r="B186" t="s">
         <v>6</v>
       </c>
+      <c r="C186" s="39"/>
       <c r="D186" t="s">
         <v>200</v>
       </c>
@@ -5233,6 +5427,7 @@
       <c r="B187" t="s">
         <v>6</v>
       </c>
+      <c r="C187" s="39"/>
       <c r="D187" t="s">
         <v>201</v>
       </c>
@@ -5253,6 +5448,7 @@
       <c r="B188" t="s">
         <v>6</v>
       </c>
+      <c r="C188" s="39"/>
       <c r="D188" t="s">
         <v>201</v>
       </c>
@@ -5273,6 +5469,7 @@
       <c r="B189" t="s">
         <v>6</v>
       </c>
+      <c r="C189" s="39"/>
       <c r="D189" t="s">
         <v>202</v>
       </c>
@@ -5293,6 +5490,7 @@
       <c r="B190" t="s">
         <v>6</v>
       </c>
+      <c r="C190" s="39"/>
       <c r="D190" t="s">
         <v>203</v>
       </c>
@@ -5313,6 +5511,7 @@
       <c r="B191" t="s">
         <v>6</v>
       </c>
+      <c r="C191" s="39"/>
       <c r="D191" t="s">
         <v>204</v>
       </c>
@@ -5333,6 +5532,7 @@
       <c r="B192" t="s">
         <v>6</v>
       </c>
+      <c r="C192" s="39"/>
       <c r="D192" t="s">
         <v>205</v>
       </c>
@@ -5353,7 +5553,7 @@
       <c r="B193" t="s">
         <v>6</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="39" t="s">
         <v>207</v>
       </c>
       <c r="D193" t="s">
@@ -5376,7 +5576,7 @@
       <c r="B194" t="s">
         <v>6</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="39" t="s">
         <v>208</v>
       </c>
       <c r="D194" t="s">
@@ -5399,7 +5599,7 @@
       <c r="B195" t="s">
         <v>6</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="39" t="s">
         <v>211</v>
       </c>
       <c r="D195" t="s">
@@ -5422,6 +5622,7 @@
       <c r="B196" t="s">
         <v>6</v>
       </c>
+      <c r="C196" s="39"/>
       <c r="D196" t="s">
         <v>212</v>
       </c>
@@ -5437,6 +5638,7 @@
     </row>
     <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
+      <c r="C197" s="39"/>
       <c r="D197" s="14" t="s">
         <v>213</v>
       </c>
@@ -5452,6 +5654,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
+      <c r="C198" s="39"/>
       <c r="D198" t="s">
         <v>214</v>
       </c>
@@ -5467,6 +5670,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
+      <c r="C199" s="39"/>
       <c r="D199" t="s">
         <v>215</v>
       </c>
@@ -5482,6 +5686,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
+      <c r="C200" s="39"/>
       <c r="D200" t="s">
         <v>216</v>
       </c>
@@ -5499,6 +5704,7 @@
       <c r="A201" s="5">
         <v>45333</v>
       </c>
+      <c r="C201" s="39"/>
       <c r="D201" t="s">
         <v>217</v>
       </c>
@@ -5516,6 +5722,7 @@
       <c r="A202" s="5">
         <v>45333</v>
       </c>
+      <c r="C202" s="39"/>
       <c r="D202" t="s">
         <v>218</v>
       </c>
@@ -5533,6 +5740,7 @@
       <c r="A203" s="5">
         <v>45336</v>
       </c>
+      <c r="C203" s="39"/>
       <c r="D203" t="s">
         <v>219</v>
       </c>
@@ -5550,6 +5758,7 @@
       <c r="A204" s="5">
         <v>45343</v>
       </c>
+      <c r="C204" s="39"/>
       <c r="D204" s="14" t="s">
         <v>220</v>
       </c>
@@ -5565,6 +5774,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
+      <c r="C205" s="39"/>
       <c r="D205" t="s">
         <v>221</v>
       </c>
@@ -5575,6 +5785,7 @@
       <c r="A206" s="5">
         <v>45344</v>
       </c>
+      <c r="C206" s="39"/>
       <c r="D206" t="s">
         <v>222</v>
       </c>
@@ -5592,6 +5803,7 @@
       <c r="A207" s="5">
         <v>45344</v>
       </c>
+      <c r="C207" s="39"/>
       <c r="D207" t="s">
         <v>223</v>
       </c>
@@ -5609,6 +5821,7 @@
       <c r="A208" s="5">
         <v>45344</v>
       </c>
+      <c r="C208" s="39"/>
       <c r="D208" t="s">
         <v>224</v>
       </c>
@@ -5626,6 +5839,7 @@
       <c r="A209" s="5">
         <v>45345</v>
       </c>
+      <c r="C209" s="39"/>
       <c r="D209" t="s">
         <v>225</v>
       </c>
@@ -5643,6 +5857,7 @@
       <c r="A210" s="5">
         <v>45346</v>
       </c>
+      <c r="C210" s="39"/>
       <c r="D210" t="s">
         <v>226</v>
       </c>
@@ -5660,6 +5875,7 @@
       <c r="A211" s="5">
         <v>45346</v>
       </c>
+      <c r="C211" s="39"/>
       <c r="D211" t="s">
         <v>227</v>
       </c>
@@ -5677,6 +5893,7 @@
       <c r="A212" s="5">
         <v>45346</v>
       </c>
+      <c r="C212" s="39"/>
       <c r="D212" t="s">
         <v>228</v>
       </c>
@@ -5692,6 +5909,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
+      <c r="C213" s="39"/>
       <c r="D213" t="s">
         <v>229</v>
       </c>
@@ -5707,6 +5925,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
+      <c r="C214" s="39"/>
       <c r="D214" t="s">
         <v>230</v>
       </c>
@@ -5722,6 +5941,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
+      <c r="C215" s="39"/>
       <c r="D215" t="s">
         <v>231</v>
       </c>
@@ -5737,6 +5957,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
+      <c r="C216" s="39"/>
       <c r="D216" t="s">
         <v>241</v>
       </c>
@@ -5752,6 +5973,7 @@
     </row>
     <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
+      <c r="C217" s="39"/>
       <c r="D217" s="14" t="s">
         <v>247</v>
       </c>
@@ -5767,6 +5989,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
+      <c r="C218" s="39"/>
       <c r="D218" t="s">
         <v>248</v>
       </c>
@@ -5782,6 +6005,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
+      <c r="C219" s="39"/>
       <c r="D219" t="s">
         <v>249</v>
       </c>
@@ -5797,6 +6021,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
+      <c r="C220" s="39"/>
       <c r="D220" t="s">
         <v>250</v>
       </c>
@@ -5812,6 +6037,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
+      <c r="C221" s="39"/>
       <c r="D221" t="s">
         <v>251</v>
       </c>
@@ -5827,6 +6053,7 @@
     </row>
     <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
+      <c r="C222" s="39"/>
       <c r="D222" s="14" t="s">
         <v>255</v>
       </c>
@@ -5842,6 +6069,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
+      <c r="C223" s="39"/>
       <c r="D223" t="s">
         <v>257</v>
       </c>
@@ -5857,6 +6085,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
+      <c r="C224" s="39"/>
       <c r="D224" t="s">
         <v>263</v>
       </c>
@@ -5870,8 +6099,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
+      <c r="C225" s="39"/>
       <c r="D225" t="s">
         <v>264</v>
       </c>
@@ -5885,317 +6115,413 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C226" s="39"/>
+      <c r="D226" t="s">
+        <v>267</v>
+      </c>
+      <c r="E226" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F226" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G226" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C227" s="39"/>
+      <c r="D227" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E227" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F227" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G227" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C228" s="39"/>
+      <c r="D228" t="s">
+        <v>266</v>
+      </c>
+      <c r="E228" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F228" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G228" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C229" s="39"/>
+      <c r="D229" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E229" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F229" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H229" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C230" s="39"/>
+      <c r="D230" t="s">
+        <v>271</v>
+      </c>
+      <c r="E230" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F230" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G230" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C231" s="39"/>
+      <c r="D231" t="s">
+        <v>273</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F231" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G231" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="50" t="s">
+      <c r="C232" s="39"/>
+      <c r="D232" t="s">
+        <v>275</v>
+      </c>
+      <c r="E232" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F232" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G232" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="C233" s="39"/>
+      <c r="D233" t="s">
+        <v>276</v>
+      </c>
+      <c r="E233" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F233" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G233" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="C234" s="39"/>
+      <c r="D234" t="s">
+        <v>277</v>
+      </c>
+      <c r="E234" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F234" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G234" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+      <c r="D235" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E235" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F235" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G235" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="D236" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E236" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F236" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G236" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="5"/>
+      <c r="D237" t="s">
+        <v>282</v>
+      </c>
+      <c r="E237" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F237" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="G237" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="5"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="5"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="5"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B233" s="50"/>
-      <c r="C233" s="50"/>
-      <c r="D233" s="50"/>
-      <c r="E233" s="50"/>
-      <c r="F233" s="50"/>
-      <c r="G233" s="17">
-        <f>SUM(G2:G232)</f>
-        <v>241.78999999999994</v>
-      </c>
-      <c r="H233" s="17">
-        <f>SUM(H2:H232)</f>
-        <v>42.8</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="50" t="s">
+      <c r="B244" s="52"/>
+      <c r="C244" s="52"/>
+      <c r="D244" s="52"/>
+      <c r="E244" s="52"/>
+      <c r="F244" s="52"/>
+      <c r="G244" s="17">
+        <f>SUM(G2:G243)</f>
+        <v>266.78999999999996</v>
+      </c>
+      <c r="H244" s="17">
+        <f>SUM(H2:H243)</f>
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B234" s="50"/>
-      <c r="C234" s="50"/>
-      <c r="D234" s="50"/>
-      <c r="E234" s="50"/>
-      <c r="F234" s="50"/>
-      <c r="G234" s="17">
+      <c r="B245" s="52"/>
+      <c r="C245" s="52"/>
+      <c r="D245" s="52"/>
+      <c r="E245" s="52"/>
+      <c r="F245" s="52"/>
+      <c r="G245" s="17">
         <v>200</v>
       </c>
-      <c r="H234" s="17">
+      <c r="H245" s="17">
         <v>300</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="50" t="s">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="B235" s="50"/>
-      <c r="C235" s="50"/>
-      <c r="D235" s="50"/>
-      <c r="E235" s="50"/>
-      <c r="F235" s="50"/>
-      <c r="G235" s="18">
-        <f>G234*G233</f>
-        <v>48357.999999999985</v>
-      </c>
-      <c r="H235" s="19">
-        <f>H234*H233</f>
-        <v>12840</v>
-      </c>
-      <c r="J235">
+      <c r="B246" s="52"/>
+      <c r="C246" s="52"/>
+      <c r="D246" s="52"/>
+      <c r="E246" s="52"/>
+      <c r="F246" s="52"/>
+      <c r="G246" s="18">
+        <f>G245*G244</f>
+        <v>53357.999999999993</v>
+      </c>
+      <c r="H246" s="19">
+        <f>H245*H244</f>
+        <v>13140</v>
+      </c>
+      <c r="J246">
         <v>-500</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A236" s="50" t="s">
+    <row r="247" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A247" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B236" s="50"/>
-      <c r="C236" s="50"/>
-      <c r="D236" s="50"/>
-      <c r="E236" s="50"/>
-      <c r="F236" s="50"/>
-      <c r="G236" s="38">
-        <f>G235+H235</f>
-        <v>61197.999999999985</v>
-      </c>
-      <c r="H236" s="38"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="11"/>
-      <c r="B237" s="41" t="s">
+      <c r="B247" s="52"/>
+      <c r="C247" s="52"/>
+      <c r="D247" s="52"/>
+      <c r="E247" s="52"/>
+      <c r="F247" s="52"/>
+      <c r="G247" s="40">
+        <f>G246+H246</f>
+        <v>66498</v>
+      </c>
+      <c r="H247" s="40"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="11"/>
+      <c r="B248" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C237" s="41"/>
-      <c r="D237" s="41"/>
-      <c r="E237" s="41"/>
-      <c r="F237" s="41"/>
-      <c r="G237" s="22"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="12">
+      <c r="C248" s="43"/>
+      <c r="D248" s="43"/>
+      <c r="E248" s="43"/>
+      <c r="F248" s="43"/>
+      <c r="G248" s="22"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="12">
         <v>45109</v>
       </c>
-      <c r="B238" s="42" t="s">
+      <c r="B249" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C238" s="42"/>
-      <c r="D238" s="42"/>
-      <c r="E238" s="42"/>
-      <c r="F238" s="42"/>
-      <c r="G238" s="44">
+      <c r="C249" s="44"/>
+      <c r="D249" s="44"/>
+      <c r="E249" s="44"/>
+      <c r="F249" s="44"/>
+      <c r="G249" s="46">
         <v>10000</v>
       </c>
-      <c r="H238" s="44"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="12"/>
-      <c r="B239" s="46" t="s">
+      <c r="H249" s="46"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="12"/>
+      <c r="B250" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C239" s="46"/>
-      <c r="D239" s="46"/>
-      <c r="E239" s="46"/>
-      <c r="F239" s="46"/>
-      <c r="G239" s="44">
+      <c r="C250" s="48"/>
+      <c r="D250" s="48"/>
+      <c r="E250" s="48"/>
+      <c r="F250" s="48"/>
+      <c r="G250" s="46">
         <v>5000</v>
       </c>
-      <c r="H239" s="44"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" s="12">
+      <c r="H250" s="46"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="12">
         <v>45278</v>
       </c>
-      <c r="B240" s="43" t="s">
+      <c r="B251" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C240" s="43"/>
-      <c r="D240" s="43"/>
-      <c r="E240" s="43"/>
-      <c r="F240" s="43"/>
-      <c r="G240" s="44">
+      <c r="C251" s="45"/>
+      <c r="D251" s="45"/>
+      <c r="E251" s="45"/>
+      <c r="F251" s="45"/>
+      <c r="G251" s="46">
         <v>9800</v>
       </c>
-      <c r="H240" s="44"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="12"/>
-      <c r="B241" s="43"/>
-      <c r="C241" s="43"/>
-      <c r="D241" s="43"/>
-      <c r="E241" s="43"/>
-      <c r="F241" s="43"/>
-      <c r="G241" s="45"/>
-      <c r="H241" s="45"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="12"/>
-      <c r="B242" s="43"/>
-      <c r="C242" s="43"/>
-      <c r="D242" s="43"/>
-      <c r="E242" s="43"/>
-      <c r="F242" s="43"/>
-      <c r="G242" s="45"/>
-      <c r="H242" s="45"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="12"/>
-      <c r="B243" s="43"/>
-      <c r="C243" s="43"/>
-      <c r="D243" s="43"/>
-      <c r="E243" s="43"/>
-      <c r="F243" s="43"/>
-      <c r="G243" s="45"/>
-      <c r="H243" s="45"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="12"/>
-      <c r="B244" s="43" t="s">
+      <c r="H251" s="46"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="12"/>
+      <c r="B252" s="45"/>
+      <c r="C252" s="45"/>
+      <c r="D252" s="45"/>
+      <c r="E252" s="45"/>
+      <c r="F252" s="45"/>
+      <c r="G252" s="47"/>
+      <c r="H252" s="47"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="12"/>
+      <c r="B253" s="45"/>
+      <c r="C253" s="45"/>
+      <c r="D253" s="45"/>
+      <c r="E253" s="45"/>
+      <c r="F253" s="45"/>
+      <c r="G253" s="47"/>
+      <c r="H253" s="47"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="12"/>
+      <c r="B254" s="45"/>
+      <c r="C254" s="45"/>
+      <c r="D254" s="45"/>
+      <c r="E254" s="45"/>
+      <c r="F254" s="45"/>
+      <c r="G254" s="47"/>
+      <c r="H254" s="47"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="12"/>
+      <c r="B255" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C244" s="43"/>
-      <c r="D244" s="43"/>
-      <c r="E244" s="43"/>
-      <c r="F244" s="43"/>
-      <c r="G244" s="44">
-        <f>SUM(G238:H243)</f>
+      <c r="C255" s="45"/>
+      <c r="D255" s="45"/>
+      <c r="E255" s="45"/>
+      <c r="F255" s="45"/>
+      <c r="G255" s="46">
+        <f>SUM(G249:H254)</f>
         <v>24800</v>
       </c>
-      <c r="H244" s="44"/>
-    </row>
-    <row r="245" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A245" s="39" t="s">
+      <c r="H255" s="46"/>
+    </row>
+    <row r="256" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A256" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B245" s="39"/>
-      <c r="C245" s="39"/>
-      <c r="D245" s="39"/>
-      <c r="E245" s="39"/>
-      <c r="F245" s="39"/>
-      <c r="G245" s="40">
-        <f>G236-G244</f>
-        <v>36397.999999999985</v>
-      </c>
-      <c r="H245" s="40"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="12"/>
-      <c r="B246" s="13"/>
-      <c r="C246" s="13"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="13"/>
-      <c r="F246" s="13"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="12"/>
-      <c r="B247" s="13"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
-      <c r="F247" s="13"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="12"/>
-      <c r="B248" s="13"/>
-      <c r="C248" s="13"/>
-      <c r="D248" s="13"/>
-      <c r="E248" s="13"/>
-      <c r="F248" s="13"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="12"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
-      <c r="F249" s="13"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
-      <c r="B250" s="13"/>
-      <c r="C250" s="13"/>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
-      <c r="F250" s="13"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="12"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="13"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
-      <c r="F251" s="13"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="12"/>
-      <c r="B252" s="13"/>
-      <c r="C252" s="13"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
-      <c r="F252" s="13"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="12"/>
-      <c r="B253" s="13"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="13"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="12"/>
-      <c r="B254" s="13"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="13"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="12"/>
-      <c r="B255" s="13"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="13"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="12"/>
-      <c r="B256" s="13"/>
-      <c r="C256" s="13"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
-      <c r="F256" s="13"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B256" s="41"/>
+      <c r="C256" s="41"/>
+      <c r="D256" s="41"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="41"/>
+      <c r="G256" s="42">
+        <f>G247-G255</f>
+        <v>41698</v>
+      </c>
+      <c r="H256" s="42"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -6203,7 +6529,7 @@
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -6211,7 +6537,7 @@
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -6219,7 +6545,7 @@
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -6227,7 +6553,7 @@
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -6235,7 +6561,7 @@
       <c r="E261" s="13"/>
       <c r="F261" s="13"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -6243,7 +6569,7 @@
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -6251,191 +6577,279 @@
       <c r="E263" s="13"/>
       <c r="F263" s="13"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="10"/>
-      <c r="B264" s="51" t="s">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="12"/>
+      <c r="B264" s="13"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="12"/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="12"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="12"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="12"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="12"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="12"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="13"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="12"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="13"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="12"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="12"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="12"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="10"/>
+      <c r="B275" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C264" s="51"/>
-      <c r="D264" s="51"/>
-      <c r="E264" s="51"/>
-      <c r="F264" s="51"/>
-      <c r="G264" s="21"/>
-      <c r="H264" s="21"/>
-      <c r="I264" s="8">
-        <f>G233+H233</f>
-        <v>284.58999999999992</v>
-      </c>
-      <c r="J264" s="8">
-        <f>I264</f>
-        <v>284.58999999999992</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="5"/>
-      <c r="B265" s="52" t="s">
+      <c r="C275" s="53"/>
+      <c r="D275" s="53"/>
+      <c r="E275" s="53"/>
+      <c r="F275" s="53"/>
+      <c r="G275" s="21"/>
+      <c r="H275" s="21"/>
+      <c r="I275" s="8">
+        <f>G244+H244</f>
+        <v>310.58999999999997</v>
+      </c>
+      <c r="J275" s="8">
+        <f>I275</f>
+        <v>310.58999999999997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
+      <c r="B276" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C265" s="52"/>
-      <c r="D265" s="52"/>
-      <c r="E265" s="52"/>
-      <c r="F265" s="52"/>
-      <c r="I265" s="8">
+      <c r="C276" s="54"/>
+      <c r="D276" s="54"/>
+      <c r="E276" s="54"/>
+      <c r="F276" s="54"/>
+      <c r="I276" s="8">
         <v>300</v>
       </c>
-      <c r="J265" s="8">
+      <c r="J276" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A266" s="5"/>
-      <c r="B266" s="52" t="s">
+    <row r="277" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A277" s="5"/>
+      <c r="B277" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C266" s="52"/>
-      <c r="D266" s="52"/>
-      <c r="E266" s="52"/>
-      <c r="F266" s="52"/>
-      <c r="I266" s="9">
-        <f>I265*I264</f>
-        <v>85376.999999999971</v>
-      </c>
-      <c r="J266" s="9">
-        <f>J265*J264</f>
-        <v>56917.999999999985</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="23"/>
-      <c r="B267" s="53" t="s">
+      <c r="C277" s="54"/>
+      <c r="D277" s="54"/>
+      <c r="E277" s="54"/>
+      <c r="F277" s="54"/>
+      <c r="I277" s="9">
+        <f>I276*I275</f>
+        <v>93176.999999999985</v>
+      </c>
+      <c r="J277" s="9">
+        <f>J276*J275</f>
+        <v>62117.999999999993</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="23"/>
+      <c r="B278" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C267" s="53"/>
-      <c r="D267" s="53"/>
-      <c r="E267" s="53"/>
-      <c r="F267" s="53"/>
-      <c r="G267" s="24"/>
-      <c r="H267" s="24"/>
-      <c r="I267" s="25"/>
-      <c r="J267" s="25"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="26">
+      <c r="C278" s="55"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="55"/>
+      <c r="G278" s="24"/>
+      <c r="H278" s="24"/>
+      <c r="I278" s="25"/>
+      <c r="J278" s="25"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="26">
         <v>45109</v>
       </c>
-      <c r="B268" s="48" t="s">
+      <c r="B279" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C268" s="48"/>
-      <c r="D268" s="48"/>
-      <c r="E268" s="48"/>
-      <c r="F268" s="48"/>
-      <c r="G268" s="27"/>
-      <c r="H268" s="27"/>
-      <c r="I268" s="28">
+      <c r="C279" s="50"/>
+      <c r="D279" s="50"/>
+      <c r="E279" s="50"/>
+      <c r="F279" s="50"/>
+      <c r="G279" s="27"/>
+      <c r="H279" s="27"/>
+      <c r="I279" s="28">
         <v>10000</v>
       </c>
-      <c r="J268" s="28">
+      <c r="J279" s="28">
         <v>10000</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="26"/>
-      <c r="B269" s="29"/>
-      <c r="C269" s="29"/>
-      <c r="D269" s="29"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="29"/>
-      <c r="G269" s="27"/>
-      <c r="H269" s="27"/>
-      <c r="I269" s="30"/>
-      <c r="J269" s="30"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="26"/>
-      <c r="B270" s="29"/>
-      <c r="C270" s="29"/>
-      <c r="D270" s="29"/>
-      <c r="E270" s="29"/>
-      <c r="F270" s="29"/>
-      <c r="G270" s="27"/>
-      <c r="H270" s="27"/>
-      <c r="I270" s="30"/>
-      <c r="J270" s="30"/>
-    </row>
-    <row r="271" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A271" s="26"/>
-      <c r="B271" s="49" t="s">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="26"/>
+      <c r="B280" s="29"/>
+      <c r="C280" s="29"/>
+      <c r="D280" s="29"/>
+      <c r="E280" s="29"/>
+      <c r="F280" s="29"/>
+      <c r="G280" s="27"/>
+      <c r="H280" s="27"/>
+      <c r="I280" s="30"/>
+      <c r="J280" s="30"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="26"/>
+      <c r="B281" s="29"/>
+      <c r="C281" s="29"/>
+      <c r="D281" s="29"/>
+      <c r="E281" s="29"/>
+      <c r="F281" s="29"/>
+      <c r="G281" s="27"/>
+      <c r="H281" s="27"/>
+      <c r="I281" s="30"/>
+      <c r="J281" s="30"/>
+    </row>
+    <row r="282" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A282" s="26"/>
+      <c r="B282" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C271" s="49"/>
-      <c r="D271" s="49"/>
-      <c r="E271" s="49"/>
-      <c r="F271" s="49"/>
-      <c r="G271" s="27"/>
-      <c r="H271" s="27"/>
-      <c r="I271" s="31">
-        <f>SUM(I268:I270)</f>
+      <c r="C282" s="51"/>
+      <c r="D282" s="51"/>
+      <c r="E282" s="51"/>
+      <c r="F282" s="51"/>
+      <c r="G282" s="27"/>
+      <c r="H282" s="27"/>
+      <c r="I282" s="31">
+        <f>SUM(I279:I281)</f>
         <v>10000</v>
       </c>
-      <c r="J271" s="31">
-        <f>SUM(J268:J270)</f>
+      <c r="J282" s="31">
+        <f>SUM(J279:J281)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A272" s="32">
+    <row r="283" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A283" s="32">
         <v>45109</v>
       </c>
-      <c r="B272" s="47" t="s">
+      <c r="B283" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C272" s="47"/>
-      <c r="D272" s="47"/>
-      <c r="E272" s="47"/>
-      <c r="F272" s="47"/>
-      <c r="G272" s="33"/>
-      <c r="H272" s="33"/>
-      <c r="I272" s="34">
-        <f>I266-I271</f>
-        <v>75376.999999999971</v>
-      </c>
-      <c r="J272" s="34">
-        <f>J266-J271</f>
-        <v>46917.999999999985</v>
+      <c r="C283" s="49"/>
+      <c r="D283" s="49"/>
+      <c r="E283" s="49"/>
+      <c r="F283" s="49"/>
+      <c r="G283" s="33"/>
+      <c r="H283" s="33"/>
+      <c r="I283" s="34">
+        <f>I277-I282</f>
+        <v>83176.999999999985</v>
+      </c>
+      <c r="J283" s="34">
+        <f>J277-J282</f>
+        <v>52117.999999999993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="A234:F234"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A236:F236"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B282:F282"/>
     <mergeCell ref="A245:F245"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="G238:H238"/>
-    <mergeCell ref="G239:H239"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="G242:H242"/>
-    <mergeCell ref="G243:H243"/>
-    <mergeCell ref="G240:H240"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A246:F246"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="G247:H247"/>
+    <mergeCell ref="A256:F256"/>
+    <mergeCell ref="G256:H256"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="G249:H249"/>
+    <mergeCell ref="G250:H250"/>
+    <mergeCell ref="G255:H255"/>
+    <mergeCell ref="G252:H252"/>
+    <mergeCell ref="G253:H253"/>
+    <mergeCell ref="G254:H254"/>
+    <mergeCell ref="G251:H251"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B252:F252"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6444,10 +6858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6591,8 +7005,8 @@
       <c r="C11" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>143</v>
+      <c r="E11" s="36" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6615,6 +7029,9 @@
       <c r="C14" t="s">
         <v>261</v>
       </c>
+      <c r="E14" s="36" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -6632,13 +7049,89 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>265</v>
       </c>
+      <c r="E17" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6647,7 +7140,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -6674,12 +7167,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -6982,12 +7475,12 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -7616,10 +8109,10 @@
       <c r="D97" s="6"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
